--- a/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9934419657483458</v>
+        <v>0.9950039522910405</v>
       </c>
       <c r="D2">
-        <v>1.012415679544878</v>
+        <v>1.014653323038624</v>
       </c>
       <c r="E2">
-        <v>1.000026984348688</v>
+        <v>1.001532756828238</v>
       </c>
       <c r="F2">
-        <v>1.001545598130373</v>
+        <v>1.00313159393061</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041880314826975</v>
+        <v>1.043087946452783</v>
       </c>
       <c r="J2">
-        <v>1.01582061156278</v>
+        <v>1.017335128094395</v>
       </c>
       <c r="K2">
-        <v>1.023704712214065</v>
+        <v>1.025912219747967</v>
       </c>
       <c r="L2">
-        <v>1.011485943249122</v>
+        <v>1.012970779137306</v>
       </c>
       <c r="M2">
-        <v>1.012983442232651</v>
+        <v>1.014547472407008</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000881481551881</v>
+        <v>1.001944791997272</v>
       </c>
       <c r="D3">
-        <v>1.017976380497942</v>
+        <v>1.020034705546733</v>
       </c>
       <c r="E3">
-        <v>1.006245710230681</v>
+        <v>1.007301369240296</v>
       </c>
       <c r="F3">
-        <v>1.009392791665819</v>
+        <v>1.010572601333643</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044655101698142</v>
+        <v>1.045726811987225</v>
       </c>
       <c r="J3">
-        <v>1.021348145301531</v>
+        <v>1.022382580060696</v>
       </c>
       <c r="K3">
-        <v>1.028384303043121</v>
+        <v>1.030417498910144</v>
       </c>
       <c r="L3">
-        <v>1.016799294937967</v>
+        <v>1.017841672376523</v>
       </c>
       <c r="M3">
-        <v>1.019906884234852</v>
+        <v>1.021071967682801</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005545456281639</v>
+        <v>1.006303442299765</v>
       </c>
       <c r="D4">
-        <v>1.021464506222752</v>
+        <v>1.023415871827451</v>
       </c>
       <c r="E4">
-        <v>1.01014975220831</v>
+        <v>1.010929423170402</v>
       </c>
       <c r="F4">
-        <v>1.014316515814655</v>
+        <v>1.015249038325178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046379983741832</v>
+        <v>1.047369618904472</v>
       </c>
       <c r="J4">
-        <v>1.024808364647998</v>
+        <v>1.025547268325979</v>
       </c>
       <c r="K4">
-        <v>1.031310595946039</v>
+        <v>1.033239669094712</v>
       </c>
       <c r="L4">
-        <v>1.020127202852111</v>
+        <v>1.020897705327277</v>
       </c>
       <c r="M4">
-        <v>1.024245170039937</v>
+        <v>1.025166839718341</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007472364102198</v>
+        <v>1.008105799756196</v>
       </c>
       <c r="D5">
-        <v>1.022905985328163</v>
+        <v>1.024814365473786</v>
       </c>
       <c r="E5">
-        <v>1.011763896661908</v>
+        <v>1.012430911132513</v>
       </c>
       <c r="F5">
-        <v>1.016351746665794</v>
+        <v>1.017183710025207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047089029139355</v>
+        <v>1.048045447229169</v>
       </c>
       <c r="J5">
-        <v>1.026236659172979</v>
+        <v>1.026854659922375</v>
       </c>
       <c r="K5">
-        <v>1.032517724890081</v>
+        <v>1.034404920104318</v>
       </c>
       <c r="L5">
-        <v>1.021501292510839</v>
+        <v>1.022160688638315</v>
       </c>
       <c r="M5">
-        <v>1.026036991282225</v>
+        <v>1.026859559598304</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007793973239864</v>
+        <v>1.008406710323579</v>
       </c>
       <c r="D6">
-        <v>1.023146592935019</v>
+        <v>1.025047866620288</v>
       </c>
       <c r="E6">
-        <v>1.012033372225737</v>
+        <v>1.012681661014538</v>
       </c>
       <c r="F6">
-        <v>1.016691494907637</v>
+        <v>1.017506764732551</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04720715926562</v>
+        <v>1.048158072347007</v>
       </c>
       <c r="J6">
-        <v>1.026474970292861</v>
+        <v>1.027072859107783</v>
       </c>
       <c r="K6">
-        <v>1.03271908825781</v>
+        <v>1.034599358287457</v>
       </c>
       <c r="L6">
-        <v>1.02173058329368</v>
+        <v>1.022371504112592</v>
       </c>
       <c r="M6">
-        <v>1.026336022408995</v>
+        <v>1.027142132580783</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005571334049532</v>
+        <v>1.006327641284106</v>
       </c>
       <c r="D7">
-        <v>1.021483863515303</v>
+        <v>1.023434647200688</v>
       </c>
       <c r="E7">
-        <v>1.010171425029978</v>
+        <v>1.01094957778679</v>
       </c>
       <c r="F7">
-        <v>1.014343844324598</v>
+        <v>1.015275010192641</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046389520270882</v>
+        <v>1.047378706674085</v>
       </c>
       <c r="J7">
-        <v>1.024827551363522</v>
+        <v>1.025564826759999</v>
       </c>
       <c r="K7">
-        <v>1.031326814774875</v>
+        <v>1.033255321123203</v>
       </c>
       <c r="L7">
-        <v>1.020145659809965</v>
+        <v>1.020914665469058</v>
       </c>
       <c r="M7">
-        <v>1.024269235748893</v>
+        <v>1.02518956890547</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9959885176962434</v>
+        <v>0.9973781596574429</v>
       </c>
       <c r="D8">
-        <v>1.014318613107831</v>
+        <v>1.01649365379967</v>
       </c>
       <c r="E8">
-        <v>1.002154455738799</v>
+        <v>1.003504766840733</v>
       </c>
       <c r="F8">
-        <v>1.004230823059351</v>
+        <v>1.005676122501323</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042833190477509</v>
+        <v>1.043993593937336</v>
       </c>
       <c r="J8">
-        <v>1.017713727932849</v>
+        <v>1.019062690257254</v>
       </c>
       <c r="K8">
-        <v>1.025308060786094</v>
+        <v>1.027454748430662</v>
       </c>
       <c r="L8">
-        <v>1.013305322427293</v>
+        <v>1.014637472204885</v>
       </c>
       <c r="M8">
-        <v>1.015353788528929</v>
+        <v>1.016779752150707</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9778512897230675</v>
+        <v>0.9805079191407553</v>
       </c>
       <c r="D9">
-        <v>1.00077941255925</v>
+        <v>1.003429162613931</v>
       </c>
       <c r="E9">
-        <v>0.9870299597489586</v>
+        <v>0.9895202325369471</v>
       </c>
       <c r="F9">
-        <v>0.9851236221203706</v>
+        <v>0.987610740977242</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035985563235778</v>
+        <v>1.03749891066882</v>
       </c>
       <c r="J9">
-        <v>1.004211172365278</v>
+        <v>1.006768280830628</v>
       </c>
       <c r="K9">
-        <v>1.013859856982825</v>
+        <v>1.016466847975766</v>
       </c>
       <c r="L9">
-        <v>1.000337031300319</v>
+        <v>1.002785656212209</v>
       </c>
       <c r="M9">
-        <v>0.9984627592246865</v>
+        <v>1.000908075207368</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9647547550092009</v>
+        <v>0.9683877243054763</v>
       </c>
       <c r="D10">
-        <v>0.9910276706571401</v>
+        <v>0.9940643009178126</v>
       </c>
       <c r="E10">
-        <v>0.9761504835890251</v>
+        <v>0.9795139032419067</v>
       </c>
       <c r="F10">
-        <v>0.9713488707552176</v>
+        <v>0.974650110848142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030965998589877</v>
+        <v>1.032759548433535</v>
       </c>
       <c r="J10">
-        <v>0.9944400608535158</v>
+        <v>0.9979142496710284</v>
       </c>
       <c r="K10">
-        <v>1.005560835228836</v>
+        <v>1.008541559694445</v>
       </c>
       <c r="L10">
-        <v>0.9909641267753453</v>
+        <v>0.9942631610454602</v>
       </c>
       <c r="M10">
-        <v>0.9862554437197727</v>
+        <v>0.9894926631970302</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9588018265848721</v>
+        <v>0.9628973704205215</v>
       </c>
       <c r="D11">
-        <v>0.9866033795589981</v>
+        <v>0.9898290886987107</v>
       </c>
       <c r="E11">
-        <v>0.9712173149721756</v>
+        <v>0.9749925865521637</v>
       </c>
       <c r="F11">
-        <v>0.9650927240481061</v>
+        <v>0.9687829330254505</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028667726858925</v>
+        <v>1.030596242279815</v>
       </c>
       <c r="J11">
-        <v>0.9899949354401085</v>
+        <v>0.9938994809116576</v>
       </c>
       <c r="K11">
-        <v>1.001782437258902</v>
+        <v>1.004945396713415</v>
       </c>
       <c r="L11">
-        <v>0.9867032389415862</v>
+        <v>0.990402034359412</v>
       </c>
       <c r="M11">
-        <v>0.9807043954547815</v>
+        <v>0.9843185875402929</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9565439087485361</v>
+        <v>0.9608181614684074</v>
       </c>
       <c r="D12">
-        <v>0.9849267472930194</v>
+        <v>0.9882264445729783</v>
       </c>
       <c r="E12">
-        <v>0.9693481990273405</v>
+        <v>0.9732822518760648</v>
       </c>
       <c r="F12">
-        <v>0.962720534018519</v>
+        <v>0.9665615592927428</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027793610805867</v>
+        <v>1.029774623536257</v>
       </c>
       <c r="J12">
-        <v>0.9883084834678783</v>
+        <v>0.9923785886404327</v>
       </c>
       <c r="K12">
-        <v>1.000348538967524</v>
+        <v>1.003582737679274</v>
       </c>
       <c r="L12">
-        <v>0.9850871814049592</v>
+        <v>0.9889398693697912</v>
       </c>
       <c r="M12">
-        <v>0.9785985823125092</v>
+        <v>0.9823587054759413</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.957030431619468</v>
+        <v>0.9612660224860908</v>
       </c>
       <c r="D13">
-        <v>0.9852879472932605</v>
+        <v>0.9885715944674321</v>
       </c>
       <c r="E13">
-        <v>0.9697508507958453</v>
+        <v>0.9736505688388717</v>
       </c>
       <c r="F13">
-        <v>0.963231646760681</v>
+        <v>0.9670400190231239</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027982066206928</v>
+        <v>1.029951705297454</v>
       </c>
       <c r="J13">
-        <v>0.9886718877620891</v>
+        <v>0.9927062087481149</v>
       </c>
       <c r="K13">
-        <v>1.000657539025092</v>
+        <v>1.003876287255268</v>
       </c>
       <c r="L13">
-        <v>0.9854353938452111</v>
+        <v>0.9892548147489251</v>
       </c>
       <c r="M13">
-        <v>0.9790523449543723</v>
+        <v>0.9827808837689491</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9586161672526936</v>
+        <v>0.9627263368321821</v>
       </c>
       <c r="D14">
-        <v>0.9864654855050194</v>
+        <v>0.9896972305487166</v>
       </c>
       <c r="E14">
-        <v>0.9710635831820829</v>
+        <v>0.9748518566374673</v>
       </c>
       <c r="F14">
-        <v>0.964897653796534</v>
+        <v>0.9686001944581871</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028595899668685</v>
+        <v>1.030528704233962</v>
       </c>
       <c r="J14">
-        <v>0.9898562734800621</v>
+        <v>0.9937743831853034</v>
       </c>
       <c r="K14">
-        <v>1.001664548330563</v>
+        <v>1.004833320905071</v>
       </c>
       <c r="L14">
-        <v>0.9865703546396332</v>
+        <v>0.9902817563342262</v>
       </c>
       <c r="M14">
-        <v>0.9805312495654687</v>
+        <v>0.9841573787555948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.959586857263877</v>
+        <v>0.9636206934973227</v>
       </c>
       <c r="D15">
-        <v>0.9871865040162512</v>
+        <v>0.9903867853532108</v>
       </c>
       <c r="E15">
-        <v>0.9718674281476714</v>
+        <v>0.9755878296833274</v>
       </c>
       <c r="F15">
-        <v>0.9659175770679344</v>
+        <v>0.9695557795929594</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028971340154039</v>
+        <v>1.030881773670492</v>
       </c>
       <c r="J15">
-        <v>0.9905812283257215</v>
+        <v>0.9944285160257211</v>
       </c>
       <c r="K15">
-        <v>1.002280881368083</v>
+        <v>1.005419348667608</v>
       </c>
       <c r="L15">
-        <v>0.9872651229726743</v>
+        <v>0.990910708530784</v>
       </c>
       <c r="M15">
-        <v>0.9814365019120806</v>
+        <v>0.9850003420338459</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9651435306715416</v>
+        <v>0.9687467127489725</v>
       </c>
       <c r="D16">
-        <v>0.9913168039141956</v>
+        <v>0.9943413816785881</v>
       </c>
       <c r="E16">
-        <v>0.9764729253839671</v>
+        <v>0.9798097824029203</v>
       </c>
       <c r="F16">
-        <v>0.9717575517772478</v>
+        <v>0.9750338148502026</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031115759627473</v>
+        <v>1.032900665186156</v>
       </c>
       <c r="J16">
-        <v>0.9947302973391338</v>
+        <v>0.9981766831152943</v>
       </c>
       <c r="K16">
-        <v>1.005807481559999</v>
+        <v>1.008776580756854</v>
       </c>
       <c r="L16">
-        <v>0.9912424001070932</v>
+        <v>0.994515621979184</v>
       </c>
       <c r="M16">
-        <v>0.9866179272617791</v>
+        <v>0.9898309100027967</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9685506846073927</v>
+        <v>0.9718949757135634</v>
       </c>
       <c r="D17">
-        <v>0.9938516695565185</v>
+        <v>0.9967721390042354</v>
       </c>
       <c r="E17">
-        <v>0.9793001166633485</v>
+        <v>0.9824059012738485</v>
       </c>
       <c r="F17">
-        <v>0.9753397197308088</v>
+        <v>0.97839926249084</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032426372087739</v>
+        <v>1.034136392997609</v>
       </c>
       <c r="J17">
-        <v>0.9972734654283328</v>
+        <v>1.000477741070056</v>
       </c>
       <c r="K17">
-        <v>1.007968366977165</v>
+        <v>1.010837002015684</v>
       </c>
       <c r="L17">
-        <v>0.9936810926321218</v>
+        <v>0.9967296153992415</v>
       </c>
       <c r="M17">
-        <v>0.989794404743454</v>
+        <v>0.9927969363564964</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9705111322404056</v>
+        <v>0.9737081884062629</v>
       </c>
       <c r="D18">
-        <v>0.9953109699095557</v>
+        <v>0.9981727548668611</v>
       </c>
       <c r="E18">
-        <v>0.9809279697334965</v>
+        <v>0.9839021767776482</v>
       </c>
       <c r="F18">
-        <v>0.9774013447868994</v>
+        <v>0.980337928864183</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033178917887515</v>
+        <v>1.034846551211493</v>
       </c>
       <c r="J18">
-        <v>0.9987364234184957</v>
+        <v>1.001802634651317</v>
       </c>
       <c r="K18">
-        <v>1.009211135987526</v>
+        <v>1.012023103659112</v>
       </c>
       <c r="L18">
-        <v>0.995084237477556</v>
+        <v>0.9980046881307675</v>
       </c>
       <c r="M18">
-        <v>0.9916219055095508</v>
+        <v>0.9945049115668341</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9711751561644965</v>
+        <v>0.9743226239722999</v>
       </c>
       <c r="D19">
-        <v>0.9958053724808578</v>
+        <v>0.9986474794834663</v>
       </c>
       <c r="E19">
-        <v>0.9814795232037598</v>
+        <v>0.9844093890301806</v>
       </c>
       <c r="F19">
-        <v>0.9780997198731883</v>
+        <v>0.9809949400407794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033433543604329</v>
+        <v>1.035086934248859</v>
       </c>
       <c r="J19">
-        <v>0.9992318780064754</v>
+        <v>1.002251528374463</v>
       </c>
       <c r="K19">
-        <v>1.00963197105386</v>
+        <v>1.012424931075106</v>
       </c>
       <c r="L19">
-        <v>0.9955594830645212</v>
+        <v>0.9984367534566571</v>
       </c>
       <c r="M19">
-        <v>0.9922408614728739</v>
+        <v>0.9950836382480714</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9681879398925582</v>
+        <v>0.9715596114103422</v>
       </c>
       <c r="D20">
-        <v>0.9935817129438498</v>
+        <v>0.99651313779262</v>
       </c>
       <c r="E20">
-        <v>0.9789990011209208</v>
+        <v>0.9821292414760974</v>
       </c>
       <c r="F20">
-        <v>0.974958292714007</v>
+        <v>0.9780407249174863</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032286999384303</v>
+        <v>1.034004919042928</v>
       </c>
       <c r="J20">
-        <v>0.9970027420311947</v>
+        <v>1.000232662813145</v>
       </c>
       <c r="K20">
-        <v>1.007738366928789</v>
+        <v>1.010617577823861</v>
       </c>
       <c r="L20">
-        <v>0.9934214607849249</v>
+        <v>0.9964937778268997</v>
       </c>
       <c r="M20">
-        <v>0.9894562416234312</v>
+        <v>0.9924810136538057</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9581505359544563</v>
+        <v>0.9622974406657543</v>
       </c>
       <c r="D21">
-        <v>0.9861196735746242</v>
+        <v>0.9893665941497406</v>
       </c>
       <c r="E21">
-        <v>0.9706780588419373</v>
+        <v>0.974498983286716</v>
       </c>
       <c r="F21">
-        <v>0.9644084317872099</v>
+        <v>0.9681419545469907</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028415719923024</v>
+        <v>1.030359303196104</v>
       </c>
       <c r="J21">
-        <v>0.9895085044416642</v>
+        <v>0.9934606715881638</v>
       </c>
       <c r="K21">
-        <v>1.001368872546265</v>
+        <v>1.004552259369216</v>
       </c>
       <c r="L21">
-        <v>0.9862370842571606</v>
+        <v>0.9899801397756202</v>
       </c>
       <c r="M21">
-        <v>0.980096996648988</v>
+        <v>0.9837531127637583</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9515665779433583</v>
+        <v>0.9562413420802052</v>
       </c>
       <c r="D22">
-        <v>0.9812338170203908</v>
+        <v>0.9847011697669195</v>
       </c>
       <c r="E22">
-        <v>0.9652319070496012</v>
+        <v>0.9695211224637078</v>
       </c>
       <c r="F22">
-        <v>0.957492633566939</v>
+        <v>0.9616727411929352</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025862435777791</v>
+        <v>1.027961791928279</v>
       </c>
       <c r="J22">
-        <v>0.9845902325841572</v>
+        <v>0.9890299738987577</v>
       </c>
       <c r="K22">
-        <v>0.9971864332195977</v>
+        <v>1.000581916245002</v>
       </c>
       <c r="L22">
-        <v>0.9815250906667299</v>
+        <v>0.9857215563740744</v>
       </c>
       <c r="M22">
-        <v>0.9739559699244398</v>
+        <v>0.9780437231028422</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9550843691297292</v>
+        <v>0.959475120441199</v>
       </c>
       <c r="D23">
-        <v>0.9838434055827369</v>
+        <v>0.9871916100299092</v>
       </c>
       <c r="E23">
-        <v>0.9681405800331159</v>
+        <v>0.9721780394381564</v>
       </c>
       <c r="F23">
-        <v>0.9611873322297948</v>
+        <v>0.9651268343443377</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027227914439199</v>
+        <v>1.029243253053325</v>
       </c>
       <c r="J23">
-        <v>0.987218238744899</v>
+        <v>0.9913960615854046</v>
       </c>
       <c r="K23">
-        <v>0.9994214571951197</v>
+        <v>1.0027023398206</v>
       </c>
       <c r="L23">
-        <v>0.9840425890397911</v>
+        <v>0.9879954326405951</v>
       </c>
       <c r="M23">
-        <v>0.977237275176341</v>
+        <v>0.9810926157095908</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9683519313831918</v>
+        <v>0.9717112192823046</v>
       </c>
       <c r="D24">
-        <v>0.9937037539684507</v>
+        <v>0.9966302222764917</v>
       </c>
       <c r="E24">
-        <v>0.9791351275412015</v>
+        <v>0.982254307553203</v>
       </c>
       <c r="F24">
-        <v>0.9751307287150035</v>
+        <v>0.9782028075640218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032350012597042</v>
+        <v>1.034064359183692</v>
       </c>
       <c r="J24">
-        <v>0.9971251331790961</v>
+        <v>1.000343456330505</v>
       </c>
       <c r="K24">
-        <v>1.007842348363149</v>
+        <v>1.010716774549981</v>
       </c>
       <c r="L24">
-        <v>0.9935388366739073</v>
+        <v>0.9966003929131002</v>
       </c>
       <c r="M24">
-        <v>0.9896091208183956</v>
+        <v>0.9926238334469286</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9827041062503554</v>
+        <v>0.9850124932283184</v>
       </c>
       <c r="D25">
-        <v>1.004398512281841</v>
+        <v>1.006914545461042</v>
       </c>
       <c r="E25">
-        <v>0.9910702501756535</v>
+        <v>0.9932479084145105</v>
       </c>
       <c r="F25">
-        <v>0.9902321465157157</v>
+        <v>0.9924312146434969</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037830789597147</v>
+        <v>1.039245850350594</v>
       </c>
       <c r="J25">
-        <v>1.007827903013917</v>
+        <v>1.010054992619074</v>
       </c>
       <c r="K25">
-        <v>1.016928928600778</v>
+        <v>1.01940646199731</v>
       </c>
       <c r="L25">
-        <v>1.00380878897077</v>
+        <v>1.005951954091865</v>
       </c>
       <c r="M25">
-        <v>1.002984012297987</v>
+        <v>1.005148173662279</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9950039522910405</v>
+        <v>1.02925795817852</v>
       </c>
       <c r="D2">
-        <v>1.014653323038624</v>
+        <v>1.044207543066317</v>
       </c>
       <c r="E2">
-        <v>1.001532756828238</v>
+        <v>1.030967604244752</v>
       </c>
       <c r="F2">
-        <v>1.00313159393061</v>
+        <v>1.045929056098546</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043087946452783</v>
+        <v>1.060603644905047</v>
       </c>
       <c r="J2">
-        <v>1.017335128094395</v>
+        <v>1.05059744676903</v>
       </c>
       <c r="K2">
-        <v>1.025912219747967</v>
+        <v>1.055083526620473</v>
       </c>
       <c r="L2">
-        <v>1.012970779137306</v>
+        <v>1.042011732500257</v>
       </c>
       <c r="M2">
-        <v>1.014547472407008</v>
+        <v>1.056783566464484</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001944791997272</v>
+        <v>1.035483857851195</v>
       </c>
       <c r="D3">
-        <v>1.020034705546733</v>
+        <v>1.049148051277299</v>
       </c>
       <c r="E3">
-        <v>1.007301369240296</v>
+        <v>1.036164774478006</v>
       </c>
       <c r="F3">
-        <v>1.010572601333643</v>
+        <v>1.051658531394424</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045726811987225</v>
+        <v>1.06322053160057</v>
       </c>
       <c r="J3">
-        <v>1.022382580060696</v>
+        <v>1.055051813323794</v>
       </c>
       <c r="K3">
-        <v>1.030417498910144</v>
+        <v>1.059188444540722</v>
       </c>
       <c r="L3">
-        <v>1.017841672376523</v>
+        <v>1.046354921931393</v>
       </c>
       <c r="M3">
-        <v>1.021071967682801</v>
+        <v>1.061670493613537</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006303442299765</v>
+        <v>1.039408997131115</v>
       </c>
       <c r="D4">
-        <v>1.023415871827451</v>
+        <v>1.052265307896285</v>
       </c>
       <c r="E4">
-        <v>1.010929423170402</v>
+        <v>1.039445714855938</v>
       </c>
       <c r="F4">
-        <v>1.015249038325178</v>
+        <v>1.055276693911495</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047369618904472</v>
+        <v>1.064859133171147</v>
       </c>
       <c r="J4">
-        <v>1.025547268325979</v>
+        <v>1.057855651406222</v>
       </c>
       <c r="K4">
-        <v>1.033239669094712</v>
+        <v>1.061771348048617</v>
       </c>
       <c r="L4">
-        <v>1.020897705327277</v>
+        <v>1.049090279554901</v>
       </c>
       <c r="M4">
-        <v>1.025166839718341</v>
+        <v>1.064750791238898</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008105799756196</v>
+        <v>1.041035520047942</v>
       </c>
       <c r="D5">
-        <v>1.024814365473786</v>
+        <v>1.053557586136793</v>
       </c>
       <c r="E5">
-        <v>1.012430911132513</v>
+        <v>1.040806274800635</v>
       </c>
       <c r="F5">
-        <v>1.017183710025207</v>
+        <v>1.056777390671372</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048045447229169</v>
+        <v>1.065535409413938</v>
       </c>
       <c r="J5">
-        <v>1.026854659922375</v>
+        <v>1.059016412881021</v>
       </c>
       <c r="K5">
-        <v>1.034404920104318</v>
+        <v>1.06284040097505</v>
       </c>
       <c r="L5">
-        <v>1.022160688638315</v>
+        <v>1.050223043343655</v>
       </c>
       <c r="M5">
-        <v>1.026859559598304</v>
+        <v>1.066027004659743</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008406710323579</v>
+        <v>1.041307268328649</v>
       </c>
       <c r="D6">
-        <v>1.025047866620288</v>
+        <v>1.053773520391589</v>
       </c>
       <c r="E6">
-        <v>1.012681661014538</v>
+        <v>1.041033643892408</v>
       </c>
       <c r="F6">
-        <v>1.017506764732551</v>
+        <v>1.057028196353596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048158072347007</v>
+        <v>1.065648234780657</v>
       </c>
       <c r="J6">
-        <v>1.027072859107783</v>
+        <v>1.059210278365327</v>
       </c>
       <c r="K6">
-        <v>1.034599358287457</v>
+        <v>1.063018935041016</v>
       </c>
       <c r="L6">
-        <v>1.022371504112592</v>
+        <v>1.050412253296936</v>
       </c>
       <c r="M6">
-        <v>1.027142132580783</v>
+        <v>1.066240211209355</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006327641284106</v>
+        <v>1.039430822091807</v>
       </c>
       <c r="D7">
-        <v>1.023434647200688</v>
+        <v>1.052282645894391</v>
       </c>
       <c r="E7">
-        <v>1.01094957778679</v>
+        <v>1.039463967270153</v>
       </c>
       <c r="F7">
-        <v>1.015275010192641</v>
+        <v>1.055296825128894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047378706674085</v>
+        <v>1.064868218443678</v>
       </c>
       <c r="J7">
-        <v>1.025564826759999</v>
+        <v>1.057871231149804</v>
       </c>
       <c r="K7">
-        <v>1.033255321123203</v>
+        <v>1.061785697858309</v>
       </c>
       <c r="L7">
-        <v>1.020914665469058</v>
+        <v>1.049105482128218</v>
       </c>
       <c r="M7">
-        <v>1.02518956890547</v>
+        <v>1.064767916623904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9973781596574429</v>
+        <v>1.031384168896531</v>
       </c>
       <c r="D8">
-        <v>1.01649365379967</v>
+        <v>1.045894210287736</v>
       </c>
       <c r="E8">
-        <v>1.003504766840733</v>
+        <v>1.032741533492523</v>
       </c>
       <c r="F8">
-        <v>1.005676122501323</v>
+        <v>1.047884434053087</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043993593937336</v>
+        <v>1.061499673837878</v>
       </c>
       <c r="J8">
-        <v>1.019062690257254</v>
+        <v>1.052119563805769</v>
       </c>
       <c r="K8">
-        <v>1.027454748430662</v>
+        <v>1.056486430241194</v>
       </c>
       <c r="L8">
-        <v>1.014637472204885</v>
+        <v>1.043495537725616</v>
       </c>
       <c r="M8">
-        <v>1.016779752150707</v>
+        <v>1.058452612517146</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9805079191407553</v>
+        <v>1.016356317162199</v>
       </c>
       <c r="D9">
-        <v>1.003429162613931</v>
+        <v>1.033986779451469</v>
       </c>
       <c r="E9">
-        <v>0.9895202325369471</v>
+        <v>1.020225173199904</v>
       </c>
       <c r="F9">
-        <v>0.987610740977242</v>
+        <v>1.034092347039643</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03749891066882</v>
+        <v>1.055120411164556</v>
       </c>
       <c r="J9">
-        <v>1.006768280830628</v>
+        <v>1.041344424645009</v>
       </c>
       <c r="K9">
-        <v>1.016466847975766</v>
+        <v>1.046551502040214</v>
       </c>
       <c r="L9">
-        <v>1.002785656212209</v>
+        <v>1.032998417509841</v>
       </c>
       <c r="M9">
-        <v>1.000908075207368</v>
+        <v>1.046655497302982</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9683877243054763</v>
+        <v>1.005680497308531</v>
       </c>
       <c r="D10">
-        <v>0.9940643009178126</v>
+        <v>1.025549031383481</v>
       </c>
       <c r="E10">
-        <v>0.9795139032419067</v>
+        <v>1.011364629902844</v>
       </c>
       <c r="F10">
-        <v>0.974650110848142</v>
+        <v>1.024333840688708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032759548433535</v>
+        <v>1.050531802674677</v>
       </c>
       <c r="J10">
-        <v>0.9979142496710284</v>
+        <v>1.03367053718159</v>
       </c>
       <c r="K10">
-        <v>1.008541559694445</v>
+        <v>1.039471819825326</v>
       </c>
       <c r="L10">
-        <v>0.9942631610454602</v>
+        <v>1.025531680002255</v>
       </c>
       <c r="M10">
-        <v>0.9894926631970302</v>
+        <v>1.038277213246521</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9628973704205215</v>
+        <v>1.000879901392878</v>
       </c>
       <c r="D11">
-        <v>0.9898290886987107</v>
+        <v>1.021761208693852</v>
       </c>
       <c r="E11">
-        <v>0.9749925865521637</v>
+        <v>1.00738894462796</v>
       </c>
       <c r="F11">
-        <v>0.9687829330254505</v>
+        <v>1.019956246997001</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030596242279815</v>
+        <v>1.048455743187002</v>
       </c>
       <c r="J11">
-        <v>0.9938994809116576</v>
+        <v>1.030216121196463</v>
       </c>
       <c r="K11">
-        <v>1.004945396713415</v>
+        <v>1.036284086671745</v>
       </c>
       <c r="L11">
-        <v>0.990402034359412</v>
+        <v>1.022172848698435</v>
       </c>
       <c r="M11">
-        <v>0.9843185875402929</v>
+        <v>1.034511381682583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9608181614684074</v>
+        <v>0.9990679176617016</v>
       </c>
       <c r="D12">
-        <v>0.9882264445729783</v>
+        <v>1.02033257760652</v>
       </c>
       <c r="E12">
-        <v>0.9732822518760648</v>
+        <v>1.005889737685219</v>
       </c>
       <c r="F12">
-        <v>0.9665615592927428</v>
+        <v>1.018305613426326</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029774623536257</v>
+        <v>1.047670299201944</v>
       </c>
       <c r="J12">
-        <v>0.9923785886404327</v>
+        <v>1.028911777338021</v>
       </c>
       <c r="K12">
-        <v>1.003582737679274</v>
+        <v>1.035080336505074</v>
       </c>
       <c r="L12">
-        <v>0.9889398693697912</v>
+        <v>1.020904962878333</v>
       </c>
       <c r="M12">
-        <v>0.9823587054759413</v>
+        <v>1.0330903137579</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9612660224860908</v>
+        <v>0.999457935051808</v>
       </c>
       <c r="D13">
-        <v>0.9885715944674321</v>
+        <v>1.020640029975591</v>
       </c>
       <c r="E13">
-        <v>0.9736505688388717</v>
+        <v>1.006212366108319</v>
       </c>
       <c r="F13">
-        <v>0.9670400190231239</v>
+        <v>1.018660823209607</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029951705297454</v>
+        <v>1.047839442440449</v>
       </c>
       <c r="J13">
-        <v>0.9927062087481149</v>
+        <v>1.029192548740557</v>
       </c>
       <c r="K13">
-        <v>1.003876287255268</v>
+        <v>1.035339458559193</v>
       </c>
       <c r="L13">
-        <v>0.9892548147489251</v>
+        <v>1.021177869558414</v>
       </c>
       <c r="M13">
-        <v>0.9827808837689491</v>
+        <v>1.033396171905386</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9627263368321821</v>
+        <v>1.000730723287329</v>
       </c>
       <c r="D14">
-        <v>0.9896972305487166</v>
+        <v>1.021643568779868</v>
       </c>
       <c r="E14">
-        <v>0.9748518566374673</v>
+        <v>1.007265487582389</v>
       </c>
       <c r="F14">
-        <v>0.9686001944581871</v>
+        <v>1.019820317705591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030528704233962</v>
+        <v>1.048391115498988</v>
       </c>
       <c r="J14">
-        <v>0.9937743831853034</v>
+        <v>1.030108745539639</v>
       </c>
       <c r="K14">
-        <v>1.004833320905071</v>
+        <v>1.036184994017713</v>
       </c>
       <c r="L14">
-        <v>0.9902817563342262</v>
+        <v>1.022068466793103</v>
       </c>
       <c r="M14">
-        <v>0.9841573787555948</v>
+        <v>1.03439437954428</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9636206934973227</v>
+        <v>1.001511043437075</v>
       </c>
       <c r="D15">
-        <v>0.9903867853532108</v>
+        <v>1.022258963870779</v>
       </c>
       <c r="E15">
-        <v>0.9755878296833274</v>
+        <v>1.007911324403884</v>
       </c>
       <c r="F15">
-        <v>0.9695557795929594</v>
+        <v>1.020531405373124</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030881773670492</v>
+        <v>1.048729095460187</v>
       </c>
       <c r="J15">
-        <v>0.9944285160257211</v>
+        <v>1.030670386784261</v>
       </c>
       <c r="K15">
-        <v>1.005419348667608</v>
+        <v>1.03670330596762</v>
       </c>
       <c r="L15">
-        <v>0.990910708530784</v>
+        <v>1.022614463866846</v>
       </c>
       <c r="M15">
-        <v>0.9850003420338459</v>
+        <v>1.035006408411087</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9687467127489725</v>
+        <v>1.00599517451334</v>
       </c>
       <c r="D16">
-        <v>0.9943413816785881</v>
+        <v>1.025797464200038</v>
       </c>
       <c r="E16">
-        <v>0.9798097824029203</v>
+        <v>1.01162542334141</v>
       </c>
       <c r="F16">
-        <v>0.9750338148502026</v>
+        <v>1.024621017334233</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032900665186156</v>
+        <v>1.05066762998856</v>
       </c>
       <c r="J16">
-        <v>0.9981766831152943</v>
+        <v>1.033896902664145</v>
       </c>
       <c r="K16">
-        <v>1.008776580756854</v>
+        <v>1.039680694641273</v>
       </c>
       <c r="L16">
-        <v>0.994515621979184</v>
+        <v>1.025751831609945</v>
       </c>
       <c r="M16">
-        <v>0.9898309100027967</v>
+        <v>1.038524104049507</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9718949757135634</v>
+        <v>1.008758906963188</v>
       </c>
       <c r="D17">
-        <v>0.9967721390042354</v>
+        <v>1.027980124642288</v>
       </c>
       <c r="E17">
-        <v>0.9824059012738485</v>
+        <v>1.013916898788194</v>
       </c>
       <c r="F17">
-        <v>0.97839926249084</v>
+        <v>1.02714442171025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034136392997609</v>
+        <v>1.051859137993652</v>
       </c>
       <c r="J17">
-        <v>1.000477741070056</v>
+        <v>1.035884605163947</v>
       </c>
       <c r="K17">
-        <v>1.010837002015684</v>
+        <v>1.041514724076001</v>
       </c>
       <c r="L17">
-        <v>0.9967296153992415</v>
+        <v>1.027685236481231</v>
       </c>
       <c r="M17">
-        <v>0.9927969363564964</v>
+        <v>1.040692681027227</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9737081884062629</v>
+        <v>1.010353934058312</v>
       </c>
       <c r="D18">
-        <v>0.9981727548668611</v>
+        <v>1.029240392053648</v>
       </c>
       <c r="E18">
-        <v>0.9839021767776482</v>
+        <v>1.015240179550277</v>
       </c>
       <c r="F18">
-        <v>0.980337928864183</v>
+        <v>1.028601732911786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034846551211493</v>
+        <v>1.052545587622821</v>
       </c>
       <c r="J18">
-        <v>1.001802634651317</v>
+        <v>1.037031409254572</v>
       </c>
       <c r="K18">
-        <v>1.012023103659112</v>
+        <v>1.042572789932044</v>
       </c>
       <c r="L18">
-        <v>0.9980046881307675</v>
+        <v>1.02880093266979</v>
       </c>
       <c r="M18">
-        <v>0.9945049115668341</v>
+        <v>1.041944374286943</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9743226239722999</v>
+        <v>1.010894971994551</v>
       </c>
       <c r="D19">
-        <v>0.9986474794834663</v>
+        <v>1.029667975643593</v>
       </c>
       <c r="E19">
-        <v>0.9844093890301806</v>
+        <v>1.015689173792455</v>
       </c>
       <c r="F19">
-        <v>0.9809949400407794</v>
+        <v>1.029096221083284</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035086934248859</v>
+        <v>1.052778227290529</v>
       </c>
       <c r="J19">
-        <v>1.002251528374463</v>
+        <v>1.037420346212496</v>
       </c>
       <c r="K19">
-        <v>1.012424931075106</v>
+        <v>1.042931617942207</v>
       </c>
       <c r="L19">
-        <v>0.9984367534566571</v>
+        <v>1.029179356154237</v>
       </c>
       <c r="M19">
-        <v>0.9950836382480714</v>
+        <v>1.042368974496041</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9715596114103422</v>
+        <v>1.008464158679442</v>
       </c>
       <c r="D20">
-        <v>0.99651313779262</v>
+        <v>1.027747284446465</v>
       </c>
       <c r="E20">
-        <v>0.9821292414760974</v>
+        <v>1.013672431523174</v>
       </c>
       <c r="F20">
-        <v>0.9780407249174863</v>
+        <v>1.026875201137665</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034004919042928</v>
+        <v>1.051732189730947</v>
       </c>
       <c r="J20">
-        <v>1.000232662813145</v>
+        <v>1.035672655679371</v>
       </c>
       <c r="K20">
-        <v>1.010617577823861</v>
+        <v>1.041319168647274</v>
       </c>
       <c r="L20">
-        <v>0.9964937778268997</v>
+        <v>1.027479053911148</v>
       </c>
       <c r="M20">
-        <v>0.9924810136538057</v>
+        <v>1.040461389318667</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9622974406657543</v>
+        <v>1.000356732676793</v>
       </c>
       <c r="D21">
-        <v>0.9893665941497406</v>
+        <v>1.021348662490387</v>
       </c>
       <c r="E21">
-        <v>0.974498983286716</v>
+        <v>1.006956003035558</v>
       </c>
       <c r="F21">
-        <v>0.9681419545469907</v>
+        <v>1.019479569518775</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030359303196104</v>
+        <v>1.048229064124036</v>
       </c>
       <c r="J21">
-        <v>0.9934606715881638</v>
+        <v>1.029839546611922</v>
       </c>
       <c r="K21">
-        <v>1.004552259369216</v>
+        <v>1.035936559622896</v>
       </c>
       <c r="L21">
-        <v>0.9899801397756202</v>
+        <v>1.021806779379739</v>
       </c>
       <c r="M21">
-        <v>0.9837531127637583</v>
+        <v>1.034101060212995</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9562413420802052</v>
+        <v>0.9950912700450028</v>
       </c>
       <c r="D22">
-        <v>0.9847011697669195</v>
+        <v>1.017199388699498</v>
       </c>
       <c r="E22">
-        <v>0.9695211224637078</v>
+        <v>1.002602266628289</v>
       </c>
       <c r="F22">
-        <v>0.9616727411929352</v>
+        <v>1.01468630992264</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027961791928279</v>
+        <v>1.045943236925847</v>
       </c>
       <c r="J22">
-        <v>0.9890299738987577</v>
+        <v>1.026048434355009</v>
       </c>
       <c r="K22">
-        <v>1.000581916245002</v>
+        <v>1.03243765271953</v>
       </c>
       <c r="L22">
-        <v>0.9857215563740744</v>
+        <v>1.018122347776574</v>
       </c>
       <c r="M22">
-        <v>0.9780437231028422</v>
+        <v>1.029972336437065</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.959475120441199</v>
+        <v>0.9978992774386035</v>
       </c>
       <c r="D23">
-        <v>0.9871916100299092</v>
+        <v>1.019411502149165</v>
       </c>
       <c r="E23">
-        <v>0.9721780394381564</v>
+        <v>1.004923237306377</v>
       </c>
       <c r="F23">
-        <v>0.9651268343443377</v>
+        <v>1.017241526328284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029243253053325</v>
+        <v>1.047163218631749</v>
       </c>
       <c r="J23">
-        <v>0.9913960615854046</v>
+        <v>1.028070416472576</v>
       </c>
       <c r="K23">
-        <v>1.0027023398206</v>
+        <v>1.034303836617599</v>
       </c>
       <c r="L23">
-        <v>0.9879954326405951</v>
+        <v>1.02008722447227</v>
       </c>
       <c r="M23">
-        <v>0.9810926157095908</v>
+        <v>1.032173905166008</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9717112192823046</v>
+        <v>1.008597395155922</v>
       </c>
       <c r="D24">
-        <v>0.9966302222764917</v>
+        <v>1.027852534481718</v>
       </c>
       <c r="E24">
-        <v>0.982254307553203</v>
+        <v>1.013782936735955</v>
       </c>
       <c r="F24">
-        <v>0.9782028075640218</v>
+        <v>1.026996895153954</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034064359183692</v>
+        <v>1.051789578500549</v>
       </c>
       <c r="J24">
-        <v>1.000343456330505</v>
+        <v>1.035768465324921</v>
       </c>
       <c r="K24">
-        <v>1.010716774549981</v>
+        <v>1.041407567762986</v>
       </c>
       <c r="L24">
-        <v>0.9966003929131002</v>
+        <v>1.027572256001637</v>
       </c>
       <c r="M24">
-        <v>0.9926238334469286</v>
+        <v>1.040565940767046</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9850124932283184</v>
+        <v>1.02035037747614</v>
       </c>
       <c r="D25">
-        <v>1.006914545461042</v>
+        <v>1.037148258806532</v>
       </c>
       <c r="E25">
-        <v>0.9932479084145105</v>
+        <v>1.023546796518084</v>
       </c>
       <c r="F25">
-        <v>0.9924312146434969</v>
+        <v>1.037751577592749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039245850350594</v>
+        <v>1.056825818483304</v>
       </c>
       <c r="J25">
-        <v>1.010054992619074</v>
+        <v>1.044211756982796</v>
       </c>
       <c r="K25">
-        <v>1.01940646199731</v>
+        <v>1.049196021896474</v>
       </c>
       <c r="L25">
-        <v>1.005951954091865</v>
+        <v>1.035790253621859</v>
       </c>
       <c r="M25">
-        <v>1.005148173662279</v>
+        <v>1.049790810501648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02925795817852</v>
+        <v>1.05755259013108</v>
       </c>
       <c r="D2">
-        <v>1.044207543066317</v>
+        <v>1.060863525316217</v>
       </c>
       <c r="E2">
-        <v>1.030967604244752</v>
+        <v>1.05364348869042</v>
       </c>
       <c r="F2">
-        <v>1.045929056098546</v>
+        <v>1.069306891305747</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060603644905047</v>
+        <v>1.051976358614207</v>
       </c>
       <c r="J2">
-        <v>1.05059744676903</v>
+        <v>1.06254841701045</v>
       </c>
       <c r="K2">
-        <v>1.055083526620473</v>
+        <v>1.063589147592431</v>
       </c>
       <c r="L2">
-        <v>1.042011732500257</v>
+        <v>1.056388890393098</v>
       </c>
       <c r="M2">
-        <v>1.056783566464484</v>
+        <v>1.072009749352477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.035483857851195</v>
+        <v>1.058801790855002</v>
       </c>
       <c r="D3">
-        <v>1.049148051277299</v>
+        <v>1.06186652951089</v>
       </c>
       <c r="E3">
-        <v>1.036164774478006</v>
+        <v>1.05472248399805</v>
       </c>
       <c r="F3">
-        <v>1.051658531394424</v>
+        <v>1.07050746540275</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06322053160057</v>
+        <v>1.052416036808773</v>
       </c>
       <c r="J3">
-        <v>1.055051813323794</v>
+        <v>1.063448691681091</v>
       </c>
       <c r="K3">
-        <v>1.059188444540722</v>
+        <v>1.064406184900867</v>
       </c>
       <c r="L3">
-        <v>1.046354921931393</v>
+        <v>1.057280290439265</v>
       </c>
       <c r="M3">
-        <v>1.061670493613537</v>
+        <v>1.073025515116331</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.039408997131115</v>
+        <v>1.05960960151591</v>
       </c>
       <c r="D4">
-        <v>1.052265307896285</v>
+        <v>1.062515043672137</v>
       </c>
       <c r="E4">
-        <v>1.039445714855938</v>
+        <v>1.05542034430982</v>
       </c>
       <c r="F4">
-        <v>1.055276693911495</v>
+        <v>1.071284212715246</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064859133171147</v>
+        <v>1.052698965749616</v>
       </c>
       <c r="J4">
-        <v>1.057855651406222</v>
+        <v>1.064030198626389</v>
       </c>
       <c r="K4">
-        <v>1.061771348048617</v>
+        <v>1.064933753438697</v>
       </c>
       <c r="L4">
-        <v>1.049090279554901</v>
+        <v>1.057856169056118</v>
       </c>
       <c r="M4">
-        <v>1.064750791238898</v>
+        <v>1.07368210433175</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.041035520047942</v>
+        <v>1.059949086695822</v>
       </c>
       <c r="D5">
-        <v>1.053557586136793</v>
+        <v>1.062787561587332</v>
       </c>
       <c r="E5">
-        <v>1.040806274800635</v>
+        <v>1.055713649400141</v>
       </c>
       <c r="F5">
-        <v>1.056777390671372</v>
+        <v>1.071610734183192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065535409413938</v>
+        <v>1.052817533617572</v>
       </c>
       <c r="J5">
-        <v>1.059016412881021</v>
+        <v>1.064274419007901</v>
       </c>
       <c r="K5">
-        <v>1.06284040097505</v>
+        <v>1.065155279148802</v>
       </c>
       <c r="L5">
-        <v>1.050223043343655</v>
+        <v>1.05809805050638</v>
       </c>
       <c r="M5">
-        <v>1.066027004659743</v>
+        <v>1.073957973561702</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.041307268328649</v>
+        <v>1.060006080884091</v>
       </c>
       <c r="D6">
-        <v>1.053773520391589</v>
+        <v>1.062833311699997</v>
       </c>
       <c r="E6">
-        <v>1.041033643892408</v>
+        <v>1.055762892242888</v>
       </c>
       <c r="F6">
-        <v>1.057028196353596</v>
+        <v>1.071665557274682</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065648234780657</v>
+        <v>1.05283741969458</v>
       </c>
       <c r="J6">
-        <v>1.059210278365327</v>
+        <v>1.06431541035825</v>
       </c>
       <c r="K6">
-        <v>1.063018935041016</v>
+        <v>1.065192458845241</v>
       </c>
       <c r="L6">
-        <v>1.050412253296936</v>
+        <v>1.058138650732803</v>
       </c>
       <c r="M6">
-        <v>1.066240211209355</v>
+        <v>1.074004283835239</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.039430822091807</v>
+        <v>1.059614138195502</v>
       </c>
       <c r="D7">
-        <v>1.052282645894391</v>
+        <v>1.062518685529499</v>
       </c>
       <c r="E7">
-        <v>1.039463967270153</v>
+        <v>1.055424263760936</v>
       </c>
       <c r="F7">
-        <v>1.055296825128894</v>
+        <v>1.071288575799493</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064868218443678</v>
+        <v>1.052700551533396</v>
       </c>
       <c r="J7">
-        <v>1.057871231149804</v>
+        <v>1.064033462872217</v>
       </c>
       <c r="K7">
-        <v>1.061785697858309</v>
+        <v>1.064936714512018</v>
       </c>
       <c r="L7">
-        <v>1.049105482128218</v>
+        <v>1.057859401942218</v>
       </c>
       <c r="M7">
-        <v>1.064767916623904</v>
+        <v>1.073685791139898</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.031384168896531</v>
+        <v>1.0579748696789</v>
       </c>
       <c r="D8">
-        <v>1.045894210287736</v>
+        <v>1.061202598985294</v>
       </c>
       <c r="E8">
-        <v>1.032741533492523</v>
+        <v>1.054008207835361</v>
       </c>
       <c r="F8">
-        <v>1.047884434053087</v>
+        <v>1.069712653702174</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061499673837878</v>
+        <v>1.052125276030923</v>
       </c>
       <c r="J8">
-        <v>1.052119563805769</v>
+        <v>1.06285288352938</v>
       </c>
       <c r="K8">
-        <v>1.056486430241194</v>
+        <v>1.0638654997242</v>
       </c>
       <c r="L8">
-        <v>1.043495537725616</v>
+        <v>1.056690333990443</v>
       </c>
       <c r="M8">
-        <v>1.058452612517146</v>
+        <v>1.072353173805439</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016356317162199</v>
+        <v>1.055082276726818</v>
       </c>
       <c r="D9">
-        <v>1.033986779451469</v>
+        <v>1.058879617230986</v>
       </c>
       <c r="E9">
-        <v>1.020225173199904</v>
+        <v>1.051510397225224</v>
       </c>
       <c r="F9">
-        <v>1.034092347039643</v>
+        <v>1.066934792788141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055120411164556</v>
+        <v>1.051099483141501</v>
       </c>
       <c r="J9">
-        <v>1.041344424645009</v>
+        <v>1.060764580479794</v>
       </c>
       <c r="K9">
-        <v>1.046551502040214</v>
+        <v>1.061969321715878</v>
       </c>
       <c r="L9">
-        <v>1.032998417509841</v>
+        <v>1.054623194613806</v>
       </c>
       <c r="M9">
-        <v>1.046655497302982</v>
+        <v>1.069999653091789</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005680497308531</v>
+        <v>1.05315102868824</v>
       </c>
       <c r="D10">
-        <v>1.025549031383481</v>
+        <v>1.057328267207135</v>
       </c>
       <c r="E10">
-        <v>1.011364629902844</v>
+        <v>1.049843376418913</v>
       </c>
       <c r="F10">
-        <v>1.024333840688708</v>
+        <v>1.065082169017709</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050531802674677</v>
+        <v>1.050407436042756</v>
       </c>
       <c r="J10">
-        <v>1.03367053718159</v>
+        <v>1.05936691138669</v>
       </c>
       <c r="K10">
-        <v>1.039471819825326</v>
+        <v>1.060699354029712</v>
       </c>
       <c r="L10">
-        <v>1.025531680002255</v>
+        <v>1.053240232595084</v>
       </c>
       <c r="M10">
-        <v>1.038277213246521</v>
+        <v>1.068426979996792</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000879901392878</v>
+        <v>1.052314062191992</v>
       </c>
       <c r="D11">
-        <v>1.021761208693852</v>
+        <v>1.056655854459434</v>
       </c>
       <c r="E11">
-        <v>1.00738894462796</v>
+        <v>1.049121083360409</v>
       </c>
       <c r="F11">
-        <v>1.019956246997001</v>
+        <v>1.064279764697687</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048455743187002</v>
+        <v>1.050105816672859</v>
       </c>
       <c r="J11">
-        <v>1.030216121196463</v>
+        <v>1.058760383944182</v>
       </c>
       <c r="K11">
-        <v>1.036284086671745</v>
+        <v>1.060148035291061</v>
       </c>
       <c r="L11">
-        <v>1.022172848698435</v>
+        <v>1.052640216845453</v>
       </c>
       <c r="M11">
-        <v>1.034511381682583</v>
+        <v>1.067745102018123</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9990679176617016</v>
+        <v>1.05200306351499</v>
       </c>
       <c r="D12">
-        <v>1.02033257760652</v>
+        <v>1.056405988105177</v>
       </c>
       <c r="E12">
-        <v>1.005889737685219</v>
+        <v>1.048852719939245</v>
       </c>
       <c r="F12">
-        <v>1.018305613426326</v>
+        <v>1.063981682561401</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047670299201944</v>
+        <v>1.049993486310334</v>
       </c>
       <c r="J12">
-        <v>1.028911777338021</v>
+        <v>1.058534890994113</v>
       </c>
       <c r="K12">
-        <v>1.035080336505074</v>
+        <v>1.059943036539347</v>
       </c>
       <c r="L12">
-        <v>1.020904962878333</v>
+        <v>1.052417164311868</v>
       </c>
       <c r="M12">
-        <v>1.0330903137579</v>
+        <v>1.067491684669193</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.999457935051808</v>
+        <v>1.052069778911976</v>
       </c>
       <c r="D13">
-        <v>1.020640029975591</v>
+        <v>1.056459589948282</v>
       </c>
       <c r="E13">
-        <v>1.006212366108319</v>
+        <v>1.048910288080419</v>
       </c>
       <c r="F13">
-        <v>1.018660823209607</v>
+        <v>1.064045623745111</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047839442440449</v>
+        <v>1.050017594946792</v>
       </c>
       <c r="J13">
-        <v>1.029192548740557</v>
+        <v>1.058583269158115</v>
       </c>
       <c r="K13">
-        <v>1.035339458559193</v>
+        <v>1.059987019201782</v>
       </c>
       <c r="L13">
-        <v>1.021177869558414</v>
+        <v>1.05246501801484</v>
       </c>
       <c r="M13">
-        <v>1.033396171905386</v>
+        <v>1.067546049809797</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000730723287329</v>
+        <v>1.052288357249788</v>
       </c>
       <c r="D14">
-        <v>1.021643568779868</v>
+        <v>1.056635202527371</v>
       </c>
       <c r="E14">
-        <v>1.007265487582389</v>
+        <v>1.04909890183007</v>
       </c>
       <c r="F14">
-        <v>1.019820317705591</v>
+        <v>1.064255125832042</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048391115498988</v>
+        <v>1.050096537445498</v>
       </c>
       <c r="J14">
-        <v>1.030108745539639</v>
+        <v>1.058741748753042</v>
       </c>
       <c r="K14">
-        <v>1.036184994017713</v>
+        <v>1.060131094415708</v>
       </c>
       <c r="L14">
-        <v>1.022068466793103</v>
+        <v>1.052621782936775</v>
       </c>
       <c r="M14">
-        <v>1.03439437954428</v>
+        <v>1.067724157279264</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001511043437075</v>
+        <v>1.052423015628176</v>
       </c>
       <c r="D15">
-        <v>1.022258963870779</v>
+        <v>1.05674338961579</v>
       </c>
       <c r="E15">
-        <v>1.007911324403884</v>
+        <v>1.049215103430048</v>
       </c>
       <c r="F15">
-        <v>1.020531405373124</v>
+        <v>1.064384202475687</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048729095460187</v>
+        <v>1.050145137329851</v>
       </c>
       <c r="J15">
-        <v>1.030670386784261</v>
+        <v>1.058839366474839</v>
       </c>
       <c r="K15">
-        <v>1.03670330596762</v>
+        <v>1.060219835438748</v>
       </c>
       <c r="L15">
-        <v>1.022614463866846</v>
+        <v>1.052718347069311</v>
       </c>
       <c r="M15">
-        <v>1.035006408411087</v>
+        <v>1.067833876880446</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00599517451334</v>
+        <v>1.053206559869739</v>
       </c>
       <c r="D16">
-        <v>1.025797464200038</v>
+        <v>1.057372878785884</v>
       </c>
       <c r="E16">
-        <v>1.01162542334141</v>
+        <v>1.049891302707825</v>
       </c>
       <c r="F16">
-        <v>1.024621017334233</v>
+        <v>1.06513541739677</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05066762998856</v>
+        <v>1.050427412157219</v>
       </c>
       <c r="J16">
-        <v>1.033896902664145</v>
+        <v>1.059407136458083</v>
       </c>
       <c r="K16">
-        <v>1.039680694641273</v>
+        <v>1.060735913274971</v>
       </c>
       <c r="L16">
-        <v>1.025751831609945</v>
+        <v>1.053280028540303</v>
       </c>
       <c r="M16">
-        <v>1.038524104049507</v>
+        <v>1.068472214833851</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008758906963188</v>
+        <v>1.053697860426765</v>
       </c>
       <c r="D17">
-        <v>1.027980124642288</v>
+        <v>1.057767560494539</v>
       </c>
       <c r="E17">
-        <v>1.013916898788194</v>
+        <v>1.050315339393955</v>
       </c>
       <c r="F17">
-        <v>1.02714442171025</v>
+        <v>1.065606577757962</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051859137993652</v>
+        <v>1.050603950481245</v>
       </c>
       <c r="J17">
-        <v>1.035884605163947</v>
+        <v>1.059762926599857</v>
       </c>
       <c r="K17">
-        <v>1.041514724076001</v>
+        <v>1.061059255241269</v>
       </c>
       <c r="L17">
-        <v>1.027685236481231</v>
+        <v>1.053632038014997</v>
       </c>
       <c r="M17">
-        <v>1.040692681027227</v>
+        <v>1.068872384771209</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010353934058312</v>
+        <v>1.05398435816645</v>
       </c>
       <c r="D18">
-        <v>1.029240392053648</v>
+        <v>1.057997707344724</v>
       </c>
       <c r="E18">
-        <v>1.015240179550277</v>
+        <v>1.050562628388061</v>
       </c>
       <c r="F18">
-        <v>1.028601732911786</v>
+        <v>1.065881377919236</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052545587622821</v>
+        <v>1.050706733427319</v>
       </c>
       <c r="J18">
-        <v>1.037031409254572</v>
+        <v>1.059970325035992</v>
       </c>
       <c r="K18">
-        <v>1.042572789932044</v>
+        <v>1.06124771880737</v>
       </c>
       <c r="L18">
-        <v>1.02880093266979</v>
+        <v>1.053837245082009</v>
       </c>
       <c r="M18">
-        <v>1.041944374286943</v>
+        <v>1.069105710428633</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010894971994551</v>
+        <v>1.054082034794439</v>
       </c>
       <c r="D19">
-        <v>1.029667975643593</v>
+        <v>1.058076170623506</v>
       </c>
       <c r="E19">
-        <v>1.015689173792455</v>
+        <v>1.050646940074339</v>
       </c>
       <c r="F19">
-        <v>1.029096221083284</v>
+        <v>1.065975074405154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052778227290529</v>
+        <v>1.050741747758021</v>
       </c>
       <c r="J19">
-        <v>1.037420346212496</v>
+        <v>1.060041020909583</v>
       </c>
       <c r="K19">
-        <v>1.042931617942207</v>
+        <v>1.061311956946803</v>
       </c>
       <c r="L19">
-        <v>1.029179356154237</v>
+        <v>1.053907196097112</v>
       </c>
       <c r="M19">
-        <v>1.042368974496041</v>
+        <v>1.069185253810991</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008464158679442</v>
+        <v>1.053645155747604</v>
       </c>
       <c r="D20">
-        <v>1.027747284446465</v>
+        <v>1.057725221549867</v>
       </c>
       <c r="E20">
-        <v>1.013672431523174</v>
+        <v>1.050269848883252</v>
       </c>
       <c r="F20">
-        <v>1.026875201137665</v>
+        <v>1.065556028767724</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051732189730947</v>
+        <v>1.050585029135469</v>
       </c>
       <c r="J20">
-        <v>1.035672655679371</v>
+        <v>1.059724766934606</v>
       </c>
       <c r="K20">
-        <v>1.041319168647274</v>
+        <v>1.061024577824757</v>
       </c>
       <c r="L20">
-        <v>1.027479053911148</v>
+        <v>1.053594282548039</v>
       </c>
       <c r="M20">
-        <v>1.040461389318667</v>
+        <v>1.068829459309018</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000356732676793</v>
+        <v>1.052223994497659</v>
       </c>
       <c r="D21">
-        <v>1.021348662490387</v>
+        <v>1.05658349184026</v>
       </c>
       <c r="E21">
-        <v>1.006956003035558</v>
+        <v>1.049043361776632</v>
       </c>
       <c r="F21">
-        <v>1.019479569518775</v>
+        <v>1.064193433632469</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048229064124036</v>
+        <v>1.050073299014655</v>
       </c>
       <c r="J21">
-        <v>1.029839546611922</v>
+        <v>1.058695086046713</v>
       </c>
       <c r="K21">
-        <v>1.035936559622896</v>
+        <v>1.06008867379093</v>
       </c>
       <c r="L21">
-        <v>1.021806779379739</v>
+        <v>1.05257562455924</v>
       </c>
       <c r="M21">
-        <v>1.034101060212995</v>
+        <v>1.067671712882853</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9950912700450028</v>
+        <v>1.051329804021972</v>
       </c>
       <c r="D22">
-        <v>1.017199388699498</v>
+        <v>1.055865048080421</v>
       </c>
       <c r="E22">
-        <v>1.002602266628289</v>
+        <v>1.048271805191484</v>
       </c>
       <c r="F22">
-        <v>1.01468630992264</v>
+        <v>1.063336521246399</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045943236925847</v>
+        <v>1.049749843679928</v>
       </c>
       <c r="J22">
-        <v>1.026048434355009</v>
+        <v>1.058046517006922</v>
       </c>
       <c r="K22">
-        <v>1.03243765271953</v>
+        <v>1.059498992220821</v>
       </c>
       <c r="L22">
-        <v>1.018122347776574</v>
+        <v>1.051934111576795</v>
       </c>
       <c r="M22">
-        <v>1.029972336437065</v>
+        <v>1.066942995051001</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9978992774386035</v>
+        <v>1.051803894054776</v>
       </c>
       <c r="D23">
-        <v>1.019411502149165</v>
+        <v>1.056245965578082</v>
       </c>
       <c r="E23">
-        <v>1.004923237306377</v>
+        <v>1.048680862054106</v>
       </c>
       <c r="F23">
-        <v>1.017241526328284</v>
+        <v>1.06379080601091</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047163218631749</v>
+        <v>1.049921476014494</v>
       </c>
       <c r="J23">
-        <v>1.028070416472576</v>
+        <v>1.058390447160202</v>
       </c>
       <c r="K23">
-        <v>1.034303836617599</v>
+        <v>1.059811711911691</v>
       </c>
       <c r="L23">
-        <v>1.02008722447227</v>
+        <v>1.052274289237205</v>
       </c>
       <c r="M23">
-        <v>1.032173905166008</v>
+        <v>1.06732937843995</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008597395155922</v>
+        <v>1.053668970938335</v>
       </c>
       <c r="D24">
-        <v>1.027852534481718</v>
+        <v>1.057744352895255</v>
       </c>
       <c r="E24">
-        <v>1.013782936735955</v>
+        <v>1.050290404224228</v>
       </c>
       <c r="F24">
-        <v>1.026996895153954</v>
+        <v>1.065578869741459</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051789578500549</v>
+        <v>1.050593579460739</v>
       </c>
       <c r="J24">
-        <v>1.035768465324921</v>
+        <v>1.059742010040051</v>
       </c>
       <c r="K24">
-        <v>1.041407567762986</v>
+        <v>1.061040247477851</v>
       </c>
       <c r="L24">
-        <v>1.027572256001637</v>
+        <v>1.053611342970953</v>
       </c>
       <c r="M24">
-        <v>1.040565940767046</v>
+        <v>1.068848855745558</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02035037747614</v>
+        <v>1.055830571778574</v>
       </c>
       <c r="D25">
-        <v>1.037148258806532</v>
+        <v>1.059480631872241</v>
       </c>
       <c r="E25">
-        <v>1.023546796518084</v>
+        <v>1.052156452988993</v>
       </c>
       <c r="F25">
-        <v>1.037751577592749</v>
+        <v>1.067653053767673</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056825818483304</v>
+        <v>1.051366113430412</v>
       </c>
       <c r="J25">
-        <v>1.044211756982796</v>
+        <v>1.061305412576682</v>
       </c>
       <c r="K25">
-        <v>1.049196021896474</v>
+        <v>1.062460553251611</v>
       </c>
       <c r="L25">
-        <v>1.035790253621859</v>
+        <v>1.055158450506855</v>
       </c>
       <c r="M25">
-        <v>1.049790810501648</v>
+        <v>1.070608731483715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05755259013108</v>
+        <v>1.02925795817852</v>
       </c>
       <c r="D2">
-        <v>1.060863525316217</v>
+        <v>1.044207543066317</v>
       </c>
       <c r="E2">
-        <v>1.05364348869042</v>
+        <v>1.030967604244752</v>
       </c>
       <c r="F2">
-        <v>1.069306891305747</v>
+        <v>1.045929056098546</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051976358614207</v>
+        <v>1.060603644905047</v>
       </c>
       <c r="J2">
-        <v>1.06254841701045</v>
+        <v>1.05059744676903</v>
       </c>
       <c r="K2">
-        <v>1.063589147592431</v>
+        <v>1.055083526620473</v>
       </c>
       <c r="L2">
-        <v>1.056388890393098</v>
+        <v>1.042011732500256</v>
       </c>
       <c r="M2">
-        <v>1.072009749352477</v>
+        <v>1.056783566464484</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058801790855002</v>
+        <v>1.035483857851192</v>
       </c>
       <c r="D3">
-        <v>1.06186652951089</v>
+        <v>1.049148051277296</v>
       </c>
       <c r="E3">
-        <v>1.05472248399805</v>
+        <v>1.036164774478002</v>
       </c>
       <c r="F3">
-        <v>1.07050746540275</v>
+        <v>1.051658531394422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052416036808773</v>
+        <v>1.063220531600568</v>
       </c>
       <c r="J3">
-        <v>1.063448691681091</v>
+        <v>1.055051813323791</v>
       </c>
       <c r="K3">
-        <v>1.064406184900867</v>
+        <v>1.05918844454072</v>
       </c>
       <c r="L3">
-        <v>1.057280290439265</v>
+        <v>1.04635492193139</v>
       </c>
       <c r="M3">
-        <v>1.073025515116331</v>
+        <v>1.061670493613534</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05960960151591</v>
+        <v>1.039408997131115</v>
       </c>
       <c r="D4">
-        <v>1.062515043672137</v>
+        <v>1.052265307896286</v>
       </c>
       <c r="E4">
-        <v>1.05542034430982</v>
+        <v>1.039445714855938</v>
       </c>
       <c r="F4">
-        <v>1.071284212715246</v>
+        <v>1.055276693911495</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052698965749616</v>
+        <v>1.064859133171147</v>
       </c>
       <c r="J4">
-        <v>1.064030198626389</v>
+        <v>1.057855651406222</v>
       </c>
       <c r="K4">
-        <v>1.064933753438697</v>
+        <v>1.061771348048617</v>
       </c>
       <c r="L4">
-        <v>1.057856169056118</v>
+        <v>1.049090279554902</v>
       </c>
       <c r="M4">
-        <v>1.07368210433175</v>
+        <v>1.064750791238899</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059949086695822</v>
+        <v>1.041035520047942</v>
       </c>
       <c r="D5">
-        <v>1.062787561587332</v>
+        <v>1.053557586136792</v>
       </c>
       <c r="E5">
-        <v>1.055713649400141</v>
+        <v>1.040806274800634</v>
       </c>
       <c r="F5">
-        <v>1.071610734183192</v>
+        <v>1.056777390671372</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052817533617572</v>
+        <v>1.065535409413937</v>
       </c>
       <c r="J5">
-        <v>1.064274419007901</v>
+        <v>1.05901641288102</v>
       </c>
       <c r="K5">
-        <v>1.065155279148802</v>
+        <v>1.06284040097505</v>
       </c>
       <c r="L5">
-        <v>1.05809805050638</v>
+        <v>1.050223043343655</v>
       </c>
       <c r="M5">
-        <v>1.073957973561702</v>
+        <v>1.066027004659743</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060006080884091</v>
+        <v>1.041307268328647</v>
       </c>
       <c r="D6">
-        <v>1.062833311699997</v>
+        <v>1.053773520391588</v>
       </c>
       <c r="E6">
-        <v>1.055762892242888</v>
+        <v>1.041033643892407</v>
       </c>
       <c r="F6">
-        <v>1.071665557274682</v>
+        <v>1.057028196353595</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05283741969458</v>
+        <v>1.065648234780656</v>
       </c>
       <c r="J6">
-        <v>1.06431541035825</v>
+        <v>1.059210278365326</v>
       </c>
       <c r="K6">
-        <v>1.065192458845241</v>
+        <v>1.063018935041015</v>
       </c>
       <c r="L6">
-        <v>1.058138650732803</v>
+        <v>1.050412253296935</v>
       </c>
       <c r="M6">
-        <v>1.074004283835239</v>
+        <v>1.066240211209354</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059614138195502</v>
+        <v>1.039430822091808</v>
       </c>
       <c r="D7">
-        <v>1.062518685529499</v>
+        <v>1.052282645894391</v>
       </c>
       <c r="E7">
-        <v>1.055424263760936</v>
+        <v>1.039463967270154</v>
       </c>
       <c r="F7">
-        <v>1.071288575799493</v>
+        <v>1.055296825128894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052700551533396</v>
+        <v>1.064868218443679</v>
       </c>
       <c r="J7">
-        <v>1.064033462872217</v>
+        <v>1.057871231149805</v>
       </c>
       <c r="K7">
-        <v>1.064936714512018</v>
+        <v>1.06178569785831</v>
       </c>
       <c r="L7">
-        <v>1.057859401942218</v>
+        <v>1.049105482128219</v>
       </c>
       <c r="M7">
-        <v>1.073685791139898</v>
+        <v>1.064767916623904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0579748696789</v>
+        <v>1.031384168896531</v>
       </c>
       <c r="D8">
-        <v>1.061202598985294</v>
+        <v>1.045894210287736</v>
       </c>
       <c r="E8">
-        <v>1.054008207835361</v>
+        <v>1.032741533492523</v>
       </c>
       <c r="F8">
-        <v>1.069712653702174</v>
+        <v>1.047884434053088</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052125276030923</v>
+        <v>1.061499673837878</v>
       </c>
       <c r="J8">
-        <v>1.06285288352938</v>
+        <v>1.05211956380577</v>
       </c>
       <c r="K8">
-        <v>1.0638654997242</v>
+        <v>1.056486430241194</v>
       </c>
       <c r="L8">
-        <v>1.056690333990443</v>
+        <v>1.043495537725616</v>
       </c>
       <c r="M8">
-        <v>1.072353173805439</v>
+        <v>1.058452612517146</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055082276726818</v>
+        <v>1.016356317162197</v>
       </c>
       <c r="D9">
-        <v>1.058879617230986</v>
+        <v>1.033986779451468</v>
       </c>
       <c r="E9">
-        <v>1.051510397225224</v>
+        <v>1.020225173199902</v>
       </c>
       <c r="F9">
-        <v>1.066934792788141</v>
+        <v>1.034092347039642</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051099483141501</v>
+        <v>1.055120411164555</v>
       </c>
       <c r="J9">
-        <v>1.060764580479794</v>
+        <v>1.041344424645008</v>
       </c>
       <c r="K9">
-        <v>1.061969321715878</v>
+        <v>1.046551502040213</v>
       </c>
       <c r="L9">
-        <v>1.054623194613806</v>
+        <v>1.032998417509839</v>
       </c>
       <c r="M9">
-        <v>1.069999653091789</v>
+        <v>1.04665549730298</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.05315102868824</v>
+        <v>1.005680497308531</v>
       </c>
       <c r="D10">
-        <v>1.057328267207135</v>
+        <v>1.025549031383481</v>
       </c>
       <c r="E10">
-        <v>1.049843376418913</v>
+        <v>1.011364629902843</v>
       </c>
       <c r="F10">
-        <v>1.065082169017709</v>
+        <v>1.024333840688708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050407436042756</v>
+        <v>1.050531802674677</v>
       </c>
       <c r="J10">
-        <v>1.05936691138669</v>
+        <v>1.03367053718159</v>
       </c>
       <c r="K10">
-        <v>1.060699354029712</v>
+        <v>1.039471819825325</v>
       </c>
       <c r="L10">
-        <v>1.053240232595084</v>
+        <v>1.025531680002255</v>
       </c>
       <c r="M10">
-        <v>1.068426979996792</v>
+        <v>1.03827721324652</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052314062191992</v>
+        <v>1.000879901392877</v>
       </c>
       <c r="D11">
-        <v>1.056655854459434</v>
+        <v>1.021761208693851</v>
       </c>
       <c r="E11">
-        <v>1.049121083360409</v>
+        <v>1.007388944627958</v>
       </c>
       <c r="F11">
-        <v>1.064279764697687</v>
+        <v>1.019956246996999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050105816672859</v>
+        <v>1.048455743187001</v>
       </c>
       <c r="J11">
-        <v>1.058760383944182</v>
+        <v>1.030216121196462</v>
       </c>
       <c r="K11">
-        <v>1.060148035291061</v>
+        <v>1.036284086671744</v>
       </c>
       <c r="L11">
-        <v>1.052640216845453</v>
+        <v>1.022172848698434</v>
       </c>
       <c r="M11">
-        <v>1.067745102018123</v>
+        <v>1.034511381682582</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05200306351499</v>
+        <v>0.9990679176617013</v>
       </c>
       <c r="D12">
-        <v>1.056405988105177</v>
+        <v>1.020332577606519</v>
       </c>
       <c r="E12">
-        <v>1.048852719939245</v>
+        <v>1.005889737685218</v>
       </c>
       <c r="F12">
-        <v>1.063981682561401</v>
+        <v>1.018305613426326</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049993486310334</v>
+        <v>1.047670299201943</v>
       </c>
       <c r="J12">
-        <v>1.058534890994113</v>
+        <v>1.028911777338021</v>
       </c>
       <c r="K12">
-        <v>1.059943036539347</v>
+        <v>1.035080336505074</v>
       </c>
       <c r="L12">
-        <v>1.052417164311868</v>
+        <v>1.020904962878333</v>
       </c>
       <c r="M12">
-        <v>1.067491684669193</v>
+        <v>1.0330903137579</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052069778911976</v>
+        <v>0.9994579350518055</v>
       </c>
       <c r="D13">
-        <v>1.056459589948282</v>
+        <v>1.020640029975589</v>
       </c>
       <c r="E13">
-        <v>1.048910288080419</v>
+        <v>1.006212366108316</v>
       </c>
       <c r="F13">
-        <v>1.064045623745111</v>
+        <v>1.018660823209605</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050017594946792</v>
+        <v>1.047839442440448</v>
       </c>
       <c r="J13">
-        <v>1.058583269158115</v>
+        <v>1.029192548740555</v>
       </c>
       <c r="K13">
-        <v>1.059987019201782</v>
+        <v>1.035339458559191</v>
       </c>
       <c r="L13">
-        <v>1.05246501801484</v>
+        <v>1.021177869558411</v>
       </c>
       <c r="M13">
-        <v>1.067546049809797</v>
+        <v>1.033396171905383</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052288357249788</v>
+        <v>1.000730723287329</v>
       </c>
       <c r="D14">
-        <v>1.056635202527371</v>
+        <v>1.021643568779868</v>
       </c>
       <c r="E14">
-        <v>1.04909890183007</v>
+        <v>1.00726548758239</v>
       </c>
       <c r="F14">
-        <v>1.064255125832042</v>
+        <v>1.019820317705591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050096537445498</v>
+        <v>1.048391115498988</v>
       </c>
       <c r="J14">
-        <v>1.058741748753042</v>
+        <v>1.03010874553964</v>
       </c>
       <c r="K14">
-        <v>1.060131094415708</v>
+        <v>1.036184994017714</v>
       </c>
       <c r="L14">
-        <v>1.052621782936775</v>
+        <v>1.022068466793104</v>
       </c>
       <c r="M14">
-        <v>1.067724157279264</v>
+        <v>1.03439437954428</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052423015628176</v>
+        <v>1.001511043437076</v>
       </c>
       <c r="D15">
-        <v>1.05674338961579</v>
+        <v>1.022258963870779</v>
       </c>
       <c r="E15">
-        <v>1.049215103430048</v>
+        <v>1.007911324403884</v>
       </c>
       <c r="F15">
-        <v>1.064384202475687</v>
+        <v>1.020531405373124</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050145137329851</v>
+        <v>1.048729095460188</v>
       </c>
       <c r="J15">
-        <v>1.058839366474839</v>
+        <v>1.030670386784262</v>
       </c>
       <c r="K15">
-        <v>1.060219835438748</v>
+        <v>1.03670330596762</v>
       </c>
       <c r="L15">
-        <v>1.052718347069311</v>
+        <v>1.022614463866846</v>
       </c>
       <c r="M15">
-        <v>1.067833876880446</v>
+        <v>1.035006408411088</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053206559869739</v>
+        <v>1.005995174513339</v>
       </c>
       <c r="D16">
-        <v>1.057372878785884</v>
+        <v>1.025797464200038</v>
       </c>
       <c r="E16">
-        <v>1.049891302707825</v>
+        <v>1.011625423341409</v>
       </c>
       <c r="F16">
-        <v>1.06513541739677</v>
+        <v>1.024621017334232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050427412157219</v>
+        <v>1.050667629988559</v>
       </c>
       <c r="J16">
-        <v>1.059407136458083</v>
+        <v>1.033896902664144</v>
       </c>
       <c r="K16">
-        <v>1.060735913274971</v>
+        <v>1.039680694641272</v>
       </c>
       <c r="L16">
-        <v>1.053280028540303</v>
+        <v>1.025751831609944</v>
       </c>
       <c r="M16">
-        <v>1.068472214833851</v>
+        <v>1.038524104049507</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053697860426765</v>
+        <v>1.008758906963188</v>
       </c>
       <c r="D17">
-        <v>1.057767560494539</v>
+        <v>1.027980124642288</v>
       </c>
       <c r="E17">
-        <v>1.050315339393955</v>
+        <v>1.013916898788194</v>
       </c>
       <c r="F17">
-        <v>1.065606577757962</v>
+        <v>1.02714442171025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050603950481245</v>
+        <v>1.051859137993652</v>
       </c>
       <c r="J17">
-        <v>1.059762926599857</v>
+        <v>1.035884605163947</v>
       </c>
       <c r="K17">
-        <v>1.061059255241269</v>
+        <v>1.041514724076001</v>
       </c>
       <c r="L17">
-        <v>1.053632038014997</v>
+        <v>1.027685236481231</v>
       </c>
       <c r="M17">
-        <v>1.068872384771209</v>
+        <v>1.040692681027227</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.05398435816645</v>
+        <v>1.010353934058311</v>
       </c>
       <c r="D18">
-        <v>1.057997707344724</v>
+        <v>1.029240392053648</v>
       </c>
       <c r="E18">
-        <v>1.050562628388061</v>
+        <v>1.015240179550277</v>
       </c>
       <c r="F18">
-        <v>1.065881377919236</v>
+        <v>1.028601732911786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050706733427319</v>
+        <v>1.052545587622821</v>
       </c>
       <c r="J18">
-        <v>1.059970325035992</v>
+        <v>1.037031409254572</v>
       </c>
       <c r="K18">
-        <v>1.06124771880737</v>
+        <v>1.042572789932045</v>
       </c>
       <c r="L18">
-        <v>1.053837245082009</v>
+        <v>1.02880093266979</v>
       </c>
       <c r="M18">
-        <v>1.069105710428633</v>
+        <v>1.041944374286943</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054082034794439</v>
+        <v>1.010894971994551</v>
       </c>
       <c r="D19">
-        <v>1.058076170623506</v>
+        <v>1.029667975643593</v>
       </c>
       <c r="E19">
-        <v>1.050646940074339</v>
+        <v>1.015689173792455</v>
       </c>
       <c r="F19">
-        <v>1.065975074405154</v>
+        <v>1.029096221083284</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050741747758021</v>
+        <v>1.05277822729053</v>
       </c>
       <c r="J19">
-        <v>1.060041020909583</v>
+        <v>1.037420346212496</v>
       </c>
       <c r="K19">
-        <v>1.061311956946803</v>
+        <v>1.042931617942207</v>
       </c>
       <c r="L19">
-        <v>1.053907196097112</v>
+        <v>1.029179356154238</v>
       </c>
       <c r="M19">
-        <v>1.069185253810991</v>
+        <v>1.042368974496041</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053645155747604</v>
+        <v>1.00846415867944</v>
       </c>
       <c r="D20">
-        <v>1.057725221549867</v>
+        <v>1.027747284446464</v>
       </c>
       <c r="E20">
-        <v>1.050269848883252</v>
+        <v>1.013672431523172</v>
       </c>
       <c r="F20">
-        <v>1.065556028767724</v>
+        <v>1.026875201137664</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050585029135469</v>
+        <v>1.051732189730946</v>
       </c>
       <c r="J20">
-        <v>1.059724766934606</v>
+        <v>1.03567265567937</v>
       </c>
       <c r="K20">
-        <v>1.061024577824757</v>
+        <v>1.041319168647272</v>
       </c>
       <c r="L20">
-        <v>1.053594282548039</v>
+        <v>1.027479053911146</v>
       </c>
       <c r="M20">
-        <v>1.068829459309018</v>
+        <v>1.040461389318666</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052223994497659</v>
+        <v>1.000356732676792</v>
       </c>
       <c r="D21">
-        <v>1.05658349184026</v>
+        <v>1.021348662490386</v>
       </c>
       <c r="E21">
-        <v>1.049043361776632</v>
+        <v>1.006956003035557</v>
       </c>
       <c r="F21">
-        <v>1.064193433632469</v>
+        <v>1.019479569518774</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050073299014655</v>
+        <v>1.048229064124035</v>
       </c>
       <c r="J21">
-        <v>1.058695086046713</v>
+        <v>1.029839546611921</v>
       </c>
       <c r="K21">
-        <v>1.06008867379093</v>
+        <v>1.035936559622895</v>
       </c>
       <c r="L21">
-        <v>1.05257562455924</v>
+        <v>1.021806779379738</v>
       </c>
       <c r="M21">
-        <v>1.067671712882853</v>
+        <v>1.034101060212993</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051329804021972</v>
+        <v>0.9950912700450003</v>
       </c>
       <c r="D22">
-        <v>1.055865048080421</v>
+        <v>1.017199388699496</v>
       </c>
       <c r="E22">
-        <v>1.048271805191484</v>
+        <v>1.002602266628286</v>
       </c>
       <c r="F22">
-        <v>1.063336521246399</v>
+        <v>1.014686309922639</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049749843679928</v>
+        <v>1.045943236925846</v>
       </c>
       <c r="J22">
-        <v>1.058046517006922</v>
+        <v>1.026048434355007</v>
       </c>
       <c r="K22">
-        <v>1.059498992220821</v>
+        <v>1.032437652719528</v>
       </c>
       <c r="L22">
-        <v>1.051934111576795</v>
+        <v>1.018122347776572</v>
       </c>
       <c r="M22">
-        <v>1.066942995051001</v>
+        <v>1.029972336437063</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051803894054776</v>
+        <v>0.9978992774386044</v>
       </c>
       <c r="D23">
-        <v>1.056245965578082</v>
+        <v>1.019411502149166</v>
       </c>
       <c r="E23">
-        <v>1.048680862054106</v>
+        <v>1.004923237306377</v>
       </c>
       <c r="F23">
-        <v>1.06379080601091</v>
+        <v>1.017241526328285</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049921476014494</v>
+        <v>1.047163218631749</v>
       </c>
       <c r="J23">
-        <v>1.058390447160202</v>
+        <v>1.028070416472577</v>
       </c>
       <c r="K23">
-        <v>1.059811711911691</v>
+        <v>1.0343038366176</v>
       </c>
       <c r="L23">
-        <v>1.052274289237205</v>
+        <v>1.020087224472271</v>
       </c>
       <c r="M23">
-        <v>1.06732937843995</v>
+        <v>1.032173905166009</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053668970938335</v>
+        <v>1.008597395155924</v>
       </c>
       <c r="D24">
-        <v>1.057744352895255</v>
+        <v>1.027852534481719</v>
       </c>
       <c r="E24">
-        <v>1.050290404224228</v>
+        <v>1.013782936735955</v>
       </c>
       <c r="F24">
-        <v>1.065578869741459</v>
+        <v>1.026996895153955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050593579460739</v>
+        <v>1.051789578500549</v>
       </c>
       <c r="J24">
-        <v>1.059742010040051</v>
+        <v>1.035768465324922</v>
       </c>
       <c r="K24">
-        <v>1.061040247477851</v>
+        <v>1.041407567762988</v>
       </c>
       <c r="L24">
-        <v>1.053611342970953</v>
+        <v>1.027572256001638</v>
       </c>
       <c r="M24">
-        <v>1.068848855745558</v>
+        <v>1.040565940767048</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055830571778574</v>
+        <v>1.020350377476141</v>
       </c>
       <c r="D25">
-        <v>1.059480631872241</v>
+        <v>1.037148258806532</v>
       </c>
       <c r="E25">
-        <v>1.052156452988993</v>
+        <v>1.023546796518084</v>
       </c>
       <c r="F25">
-        <v>1.067653053767673</v>
+        <v>1.037751577592749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051366113430412</v>
+        <v>1.056825818483305</v>
       </c>
       <c r="J25">
-        <v>1.061305412576682</v>
+        <v>1.044211756982797</v>
       </c>
       <c r="K25">
-        <v>1.062460553251611</v>
+        <v>1.049196021896475</v>
       </c>
       <c r="L25">
-        <v>1.055158450506855</v>
+        <v>1.035790253621859</v>
       </c>
       <c r="M25">
-        <v>1.070608731483715</v>
+        <v>1.049790810501648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02925795817852</v>
+        <v>1.011341049332294</v>
       </c>
       <c r="D2">
-        <v>1.044207543066317</v>
+        <v>1.029095553703284</v>
       </c>
       <c r="E2">
-        <v>1.030967604244752</v>
+        <v>1.016227267589821</v>
       </c>
       <c r="F2">
-        <v>1.045929056098546</v>
+        <v>1.030599131491638</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060603644905047</v>
+        <v>1.051207638023673</v>
       </c>
       <c r="J2">
-        <v>1.05059744676903</v>
+        <v>1.033187763095859</v>
       </c>
       <c r="K2">
-        <v>1.055083526620473</v>
+        <v>1.040163893528488</v>
       </c>
       <c r="L2">
-        <v>1.042011732500256</v>
+        <v>1.027465066725638</v>
       </c>
       <c r="M2">
-        <v>1.056783566464484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.041648016573798</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041534001281094</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039469630632765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035483857851192</v>
+        <v>1.014871128756869</v>
       </c>
       <c r="D3">
-        <v>1.049148051277296</v>
+        <v>1.031437129802864</v>
       </c>
       <c r="E3">
-        <v>1.036164774478002</v>
+        <v>1.018989234463514</v>
       </c>
       <c r="F3">
-        <v>1.051658531394422</v>
+        <v>1.033260996570616</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063220531600568</v>
+        <v>1.052184806522442</v>
       </c>
       <c r="J3">
-        <v>1.055051813323791</v>
+        <v>1.034964440887437</v>
       </c>
       <c r="K3">
-        <v>1.05918844454072</v>
+        <v>1.041682967450024</v>
       </c>
       <c r="L3">
-        <v>1.04635492193139</v>
+        <v>1.029384775750519</v>
       </c>
       <c r="M3">
-        <v>1.061670493613534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.043485274866374</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042988064494548</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040541083293502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039408997131115</v>
+        <v>1.017116370706882</v>
       </c>
       <c r="D4">
-        <v>1.052265307896286</v>
+        <v>1.032929979132785</v>
       </c>
       <c r="E4">
-        <v>1.039445714855938</v>
+        <v>1.02075147690947</v>
       </c>
       <c r="F4">
-        <v>1.055276693911495</v>
+        <v>1.034960591787098</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064859133171147</v>
+        <v>1.052797307690925</v>
       </c>
       <c r="J4">
-        <v>1.057855651406222</v>
+        <v>1.036092145644454</v>
       </c>
       <c r="K4">
-        <v>1.061771348048617</v>
+        <v>1.0426465717876</v>
       </c>
       <c r="L4">
-        <v>1.049090279554902</v>
+        <v>1.030605738544625</v>
       </c>
       <c r="M4">
-        <v>1.064750791238899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.044654617491778</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043913517012249</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041223326308585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041035520047942</v>
+        <v>1.018054343277768</v>
       </c>
       <c r="D5">
-        <v>1.053557586136792</v>
+        <v>1.033556569152919</v>
       </c>
       <c r="E5">
-        <v>1.040806274800634</v>
+        <v>1.021489402278528</v>
       </c>
       <c r="F5">
-        <v>1.056777390671372</v>
+        <v>1.035671277929369</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065535409413937</v>
+        <v>1.053052464153499</v>
       </c>
       <c r="J5">
-        <v>1.05901641288102</v>
+        <v>1.036564165425494</v>
       </c>
       <c r="K5">
-        <v>1.06284040097505</v>
+        <v>1.043051303687747</v>
       </c>
       <c r="L5">
-        <v>1.050223043343655</v>
+        <v>1.03111693032074</v>
       </c>
       <c r="M5">
-        <v>1.066027004659743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.045143131871688</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04430014146802</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041516660617092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041307268328647</v>
+        <v>1.018215131832372</v>
       </c>
       <c r="D6">
-        <v>1.053773520391588</v>
+        <v>1.033666599857646</v>
       </c>
       <c r="E6">
-        <v>1.041033643892407</v>
+        <v>1.021616491710757</v>
       </c>
       <c r="F6">
-        <v>1.057028196353595</v>
+        <v>1.035792124873338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065648234780656</v>
+        <v>1.053097867192675</v>
       </c>
       <c r="J6">
-        <v>1.059210278365326</v>
+        <v>1.036646855357362</v>
       </c>
       <c r="K6">
-        <v>1.063018935041015</v>
+        <v>1.043124067517692</v>
       </c>
       <c r="L6">
-        <v>1.050412253296935</v>
+        <v>1.031205960120234</v>
       </c>
       <c r="M6">
-        <v>1.066240211209354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.045226699426563</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044366279235382</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041576836931449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039430822091808</v>
+        <v>1.017139215089351</v>
       </c>
       <c r="D7">
-        <v>1.052282645894391</v>
+        <v>1.032952111127979</v>
       </c>
       <c r="E7">
-        <v>1.039463967270154</v>
+        <v>1.020770843502839</v>
       </c>
       <c r="F7">
-        <v>1.055296825128894</v>
+        <v>1.034975017747622</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064868218443679</v>
+        <v>1.052808328834903</v>
       </c>
       <c r="J7">
-        <v>1.057871231149805</v>
+        <v>1.03610849764843</v>
       </c>
       <c r="K7">
-        <v>1.06178569785831</v>
+        <v>1.042665583643662</v>
       </c>
       <c r="L7">
-        <v>1.049105482128219</v>
+        <v>1.030621963454037</v>
       </c>
       <c r="M7">
-        <v>1.064767916623904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.04466601741891</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043922539247713</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041256840958612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031384168896531</v>
+        <v>1.012555088027853</v>
       </c>
       <c r="D8">
-        <v>1.045894210287736</v>
+        <v>1.029908559019305</v>
       </c>
       <c r="E8">
-        <v>1.032741533492523</v>
+        <v>1.017177799436268</v>
       </c>
       <c r="F8">
-        <v>1.047884434053088</v>
+        <v>1.031509625959836</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061499673837878</v>
+        <v>1.051551395107386</v>
       </c>
       <c r="J8">
-        <v>1.05211956380577</v>
+        <v>1.033805258264748</v>
       </c>
       <c r="K8">
-        <v>1.056486430241194</v>
+        <v>1.040698084725489</v>
       </c>
       <c r="L8">
-        <v>1.043495537725616</v>
+        <v>1.028130007172463</v>
       </c>
       <c r="M8">
-        <v>1.058452612517146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.04227904666951</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042033418405159</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039870219913458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016356317162197</v>
+        <v>1.004150407771234</v>
       </c>
       <c r="D9">
-        <v>1.033986779451468</v>
+        <v>1.024347053422863</v>
       </c>
       <c r="E9">
-        <v>1.020225173199902</v>
+        <v>1.010633098471223</v>
       </c>
       <c r="F9">
-        <v>1.034092347039642</v>
+        <v>1.025214375585434</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055120411164555</v>
+        <v>1.04916957782328</v>
       </c>
       <c r="J9">
-        <v>1.041344424645008</v>
+        <v>1.02955745095276</v>
       </c>
       <c r="K9">
-        <v>1.046551502040213</v>
+        <v>1.037057091796161</v>
       </c>
       <c r="L9">
-        <v>1.032998417509839</v>
+        <v>1.023555984946134</v>
       </c>
       <c r="M9">
-        <v>1.04665549730298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.03791119673919</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038576557096864</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03729263134089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005680497308531</v>
+        <v>0.9983863249850117</v>
       </c>
       <c r="D10">
-        <v>1.025549031383481</v>
+        <v>1.020565747149927</v>
       </c>
       <c r="E10">
-        <v>1.011364629902843</v>
+        <v>1.006186015253582</v>
       </c>
       <c r="F10">
-        <v>1.024333840688708</v>
+        <v>1.021105211253806</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050531802674677</v>
+        <v>1.047520619209325</v>
       </c>
       <c r="J10">
-        <v>1.03367053718159</v>
+        <v>1.026664112921472</v>
       </c>
       <c r="K10">
-        <v>1.039471819825325</v>
+        <v>1.034573350178208</v>
       </c>
       <c r="L10">
-        <v>1.025531680002255</v>
+        <v>1.020444470367219</v>
       </c>
       <c r="M10">
-        <v>1.03827721324652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.03510358107546</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036406076184806</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035553276658365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000879901392877</v>
+        <v>0.9963300396925454</v>
       </c>
       <c r="D11">
-        <v>1.021761208693851</v>
+        <v>1.019295819357126</v>
       </c>
       <c r="E11">
-        <v>1.007388944627958</v>
+        <v>1.004677512650157</v>
       </c>
       <c r="F11">
-        <v>1.019956246996999</v>
+        <v>1.020997024052622</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048455743187001</v>
+        <v>1.047143227118885</v>
       </c>
       <c r="J11">
-        <v>1.030216121196462</v>
+        <v>1.025856294321106</v>
       </c>
       <c r="K11">
-        <v>1.036284086671744</v>
+        <v>1.033862793718618</v>
       </c>
       <c r="L11">
-        <v>1.022172848698434</v>
+        <v>1.019511753769169</v>
       </c>
       <c r="M11">
-        <v>1.034511381682582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.035533540797775</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037183201807758</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035083721088268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9990679176617013</v>
+        <v>0.9957084759230157</v>
       </c>
       <c r="D12">
-        <v>1.020332577606519</v>
+        <v>1.018932790170396</v>
       </c>
       <c r="E12">
-        <v>1.005889737685218</v>
+        <v>1.00425108463272</v>
       </c>
       <c r="F12">
-        <v>1.018305613426326</v>
+        <v>1.021526270891778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047670299201943</v>
+        <v>1.047108141369087</v>
       </c>
       <c r="J12">
-        <v>1.028911777338021</v>
+        <v>1.025695577844392</v>
       </c>
       <c r="K12">
-        <v>1.035080336505074</v>
+        <v>1.03370603976354</v>
       </c>
       <c r="L12">
-        <v>1.020904962878333</v>
+        <v>1.019297291255959</v>
       </c>
       <c r="M12">
-        <v>1.0330903137579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.036252363932641</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03807840890535</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034972891002684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9994579350518055</v>
+        <v>0.9961625941915344</v>
       </c>
       <c r="D13">
-        <v>1.020640029975589</v>
+        <v>1.019259492719669</v>
       </c>
       <c r="E13">
-        <v>1.006212366108316</v>
+        <v>1.00463872103254</v>
       </c>
       <c r="F13">
-        <v>1.018660823209605</v>
+        <v>1.022607389793327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047839442440448</v>
+        <v>1.047348479504698</v>
       </c>
       <c r="J13">
-        <v>1.029192548740555</v>
+        <v>1.026037033833966</v>
       </c>
       <c r="K13">
-        <v>1.035339458559191</v>
+        <v>1.033983957171481</v>
       </c>
       <c r="L13">
-        <v>1.021177869558411</v>
+        <v>1.019633849616753</v>
       </c>
       <c r="M13">
-        <v>1.033396171905383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.03727129236951</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039160795913123</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035166895354566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000730723287329</v>
+        <v>0.9969639041336981</v>
       </c>
       <c r="D14">
-        <v>1.021643568779868</v>
+        <v>1.019798616793231</v>
       </c>
       <c r="E14">
-        <v>1.00726548758239</v>
+        <v>1.005275399788703</v>
       </c>
       <c r="F14">
-        <v>1.019820317705591</v>
+        <v>1.023600960462896</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048391115498988</v>
+        <v>1.04763808640121</v>
       </c>
       <c r="J14">
-        <v>1.03010874553964</v>
+        <v>1.026499371416196</v>
       </c>
       <c r="K14">
-        <v>1.036184994017714</v>
+        <v>1.034373067996077</v>
       </c>
       <c r="L14">
-        <v>1.022068466793104</v>
+        <v>1.020115350091995</v>
       </c>
       <c r="M14">
-        <v>1.03439437954428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.038107515890151</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039995124154214</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035443433671815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001511043437076</v>
+        <v>0.9974023905474368</v>
       </c>
       <c r="D15">
-        <v>1.022258963870779</v>
+        <v>1.020090008062972</v>
       </c>
       <c r="E15">
-        <v>1.007911324403884</v>
+        <v>1.005616479175785</v>
       </c>
       <c r="F15">
-        <v>1.020531405373124</v>
+        <v>1.023996364745879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048729095460188</v>
+        <v>1.047777050495645</v>
       </c>
       <c r="J15">
-        <v>1.030670386784262</v>
+        <v>1.026731888154888</v>
       </c>
       <c r="K15">
-        <v>1.03670330596762</v>
+        <v>1.034572866700795</v>
       </c>
       <c r="L15">
-        <v>1.022614463866846</v>
+        <v>1.020361905214251</v>
       </c>
       <c r="M15">
-        <v>1.035006408411088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.038410006499062</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040271741500483</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035590567148165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005995174513339</v>
+        <v>0.9997514072783203</v>
       </c>
       <c r="D16">
-        <v>1.025797464200038</v>
+        <v>1.021626757010868</v>
       </c>
       <c r="E16">
-        <v>1.011625423341409</v>
+        <v>1.007415625143494</v>
       </c>
       <c r="F16">
-        <v>1.024621017334232</v>
+        <v>1.025576166502046</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050667629988559</v>
+        <v>1.048444398153607</v>
       </c>
       <c r="J16">
-        <v>1.033896902664144</v>
+        <v>1.027898074857131</v>
       </c>
       <c r="K16">
-        <v>1.039680694641272</v>
+        <v>1.035580647801587</v>
       </c>
       <c r="L16">
-        <v>1.025751831609944</v>
+        <v>1.021615978467686</v>
       </c>
       <c r="M16">
-        <v>1.038524104049507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.039463127557055</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04106541832371</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036306269464314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008758906963188</v>
+        <v>1.001139473933622</v>
       </c>
       <c r="D17">
-        <v>1.027980124642288</v>
+        <v>1.022528590633135</v>
       </c>
       <c r="E17">
-        <v>1.013916898788194</v>
+        <v>1.00846875246739</v>
       </c>
       <c r="F17">
-        <v>1.02714442171025</v>
+        <v>1.02626642935607</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051859137993652</v>
+        <v>1.048805088116474</v>
       </c>
       <c r="J17">
-        <v>1.035884605163947</v>
+        <v>1.028553934153526</v>
       </c>
       <c r="K17">
-        <v>1.041514724076001</v>
+        <v>1.036152815210262</v>
       </c>
       <c r="L17">
-        <v>1.027685236481231</v>
+        <v>1.022329905445993</v>
       </c>
       <c r="M17">
-        <v>1.040692681027227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.039829070605329</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041225658173325</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036713399212464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010353934058311</v>
+        <v>1.00180445905357</v>
       </c>
       <c r="D18">
-        <v>1.029240392053648</v>
+        <v>1.022939257985095</v>
       </c>
       <c r="E18">
-        <v>1.015240179550277</v>
+        <v>1.008950823942819</v>
       </c>
       <c r="F18">
-        <v>1.028601732911786</v>
+        <v>1.026143826474143</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052545587622821</v>
+        <v>1.04891095818296</v>
       </c>
       <c r="J18">
-        <v>1.037031409254572</v>
+        <v>1.028799468999425</v>
       </c>
       <c r="K18">
-        <v>1.042572789932045</v>
+        <v>1.036373438869492</v>
       </c>
       <c r="L18">
-        <v>1.02880093266979</v>
+        <v>1.022616822670095</v>
       </c>
       <c r="M18">
-        <v>1.041944374286943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.039526043066987</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040748421218652</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036857758225638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010894971994551</v>
+        <v>1.001800048399764</v>
       </c>
       <c r="D19">
-        <v>1.029667975643593</v>
+        <v>1.022900221489133</v>
       </c>
       <c r="E19">
-        <v>1.015689173792455</v>
+        <v>1.008903389532555</v>
       </c>
       <c r="F19">
-        <v>1.029096221083284</v>
+        <v>1.025227668777296</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05277822729053</v>
+        <v>1.048777365874856</v>
       </c>
       <c r="J19">
-        <v>1.037420346212496</v>
+        <v>1.028660993491134</v>
       </c>
       <c r="K19">
-        <v>1.042931617942207</v>
+        <v>1.036272549085954</v>
       </c>
       <c r="L19">
-        <v>1.029179356154238</v>
+        <v>1.022506459755483</v>
       </c>
       <c r="M19">
-        <v>1.042368974496041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.038562411526062</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039660823505338</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036792816550482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00846415867944</v>
+        <v>0.9999067695439311</v>
       </c>
       <c r="D20">
-        <v>1.027747284446464</v>
+        <v>1.021578607788343</v>
       </c>
       <c r="E20">
-        <v>1.013672431523172</v>
+        <v>1.007361130367482</v>
       </c>
       <c r="F20">
-        <v>1.026875201137664</v>
+        <v>1.022187905051235</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051732189730946</v>
+        <v>1.047971248383011</v>
       </c>
       <c r="J20">
-        <v>1.03567265567937</v>
+        <v>1.027441285541939</v>
       </c>
       <c r="K20">
-        <v>1.041319168647272</v>
+        <v>1.035252346732599</v>
       </c>
       <c r="L20">
-        <v>1.027479053911146</v>
+        <v>1.021275766451962</v>
       </c>
       <c r="M20">
-        <v>1.040461389318666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.035851513062806</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036987411509887</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03607541354974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000356732676792</v>
+        <v>0.9954833502237469</v>
       </c>
       <c r="D21">
-        <v>1.021348662490386</v>
+        <v>1.018667322578508</v>
       </c>
       <c r="E21">
-        <v>1.006956003035557</v>
+        <v>1.003946201012509</v>
       </c>
       <c r="F21">
-        <v>1.019479569518774</v>
+        <v>1.018784841742178</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048229064124035</v>
+        <v>1.046645093173242</v>
       </c>
       <c r="J21">
-        <v>1.029839546611921</v>
+        <v>1.02517113204989</v>
       </c>
       <c r="K21">
-        <v>1.035936559622895</v>
+        <v>1.033303461897756</v>
       </c>
       <c r="L21">
-        <v>1.021806779379738</v>
+        <v>1.01885319510735</v>
       </c>
       <c r="M21">
-        <v>1.034101060212993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.033418859760393</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035021155190957</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034700706482785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9950912700450003</v>
+        <v>0.992669414994479</v>
       </c>
       <c r="D22">
-        <v>1.017199388699496</v>
+        <v>1.016818606206949</v>
       </c>
       <c r="E22">
-        <v>1.002602266628286</v>
+        <v>1.001783879697024</v>
       </c>
       <c r="F22">
-        <v>1.014686309922639</v>
+        <v>1.016717484449061</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045943236925846</v>
+        <v>1.045802161341363</v>
       </c>
       <c r="J22">
-        <v>1.026048434355007</v>
+        <v>1.023734761033393</v>
       </c>
       <c r="K22">
-        <v>1.032437652719528</v>
+        <v>1.032064087374078</v>
       </c>
       <c r="L22">
-        <v>1.018122347776572</v>
+        <v>1.017320080221159</v>
       </c>
       <c r="M22">
-        <v>1.029972336437063</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.031964883411466</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033870420623722</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033810906154715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9978992774386044</v>
+        <v>0.9941567736073106</v>
       </c>
       <c r="D23">
-        <v>1.019411502149166</v>
+        <v>1.017789331680461</v>
       </c>
       <c r="E23">
-        <v>1.004923237306377</v>
+        <v>1.002924523253813</v>
       </c>
       <c r="F23">
-        <v>1.017241526328285</v>
+        <v>1.017811874970615</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047163218631749</v>
+        <v>1.046244636168137</v>
       </c>
       <c r="J23">
-        <v>1.028070416472577</v>
+        <v>1.02448986483303</v>
       </c>
       <c r="K23">
-        <v>1.0343038366176</v>
+        <v>1.032711580407503</v>
       </c>
       <c r="L23">
-        <v>1.020087224472271</v>
+        <v>1.018126792631715</v>
       </c>
       <c r="M23">
-        <v>1.032173905166009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.03273370712777</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03447889844892</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034259073560334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008597395155924</v>
+        <v>0.9999155027080276</v>
       </c>
       <c r="D24">
-        <v>1.027852534481719</v>
+        <v>1.021567978138731</v>
       </c>
       <c r="E24">
-        <v>1.013782936735955</v>
+        <v>1.007358791857768</v>
       </c>
       <c r="F24">
-        <v>1.026996895153955</v>
+        <v>1.022063774982434</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051789578500549</v>
+        <v>1.047945848544045</v>
       </c>
       <c r="J24">
-        <v>1.035768465324922</v>
+        <v>1.027416805673214</v>
       </c>
       <c r="K24">
-        <v>1.041407567762988</v>
+        <v>1.035226634426903</v>
       </c>
       <c r="L24">
-        <v>1.027572256001638</v>
+        <v>1.021257899614791</v>
       </c>
       <c r="M24">
-        <v>1.040565940767048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.035714196700992</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036837772098504</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036029836111133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020350377476141</v>
+        <v>1.006378112610444</v>
       </c>
       <c r="D25">
-        <v>1.037148258806532</v>
+        <v>1.025827985242962</v>
       </c>
       <c r="E25">
-        <v>1.023546796518084</v>
+        <v>1.012364751841328</v>
       </c>
       <c r="F25">
-        <v>1.037751577592749</v>
+        <v>1.026871956299365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056825818483305</v>
+        <v>1.049815994832075</v>
       </c>
       <c r="J25">
-        <v>1.044211756982797</v>
+        <v>1.030692717987041</v>
       </c>
       <c r="K25">
-        <v>1.049196021896475</v>
+        <v>1.038038161940108</v>
       </c>
       <c r="L25">
-        <v>1.035790253621859</v>
+        <v>1.024774106081445</v>
       </c>
       <c r="M25">
-        <v>1.049790810501648</v>
+        <v>1.039066964967327</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039491272023067</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038014867595699</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011341049332294</v>
+        <v>1.010491531172685</v>
       </c>
       <c r="D2">
-        <v>1.029095553703284</v>
+        <v>1.027812479914289</v>
       </c>
       <c r="E2">
-        <v>1.016227267589821</v>
+        <v>1.015505879953672</v>
       </c>
       <c r="F2">
-        <v>1.030599131491638</v>
+        <v>1.030169058732265</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051207638023673</v>
+        <v>1.05051743284523</v>
       </c>
       <c r="J2">
-        <v>1.033187763095859</v>
+        <v>1.032362907406806</v>
       </c>
       <c r="K2">
-        <v>1.040163893528488</v>
+        <v>1.038897477742317</v>
       </c>
       <c r="L2">
-        <v>1.027465066725638</v>
+        <v>1.026753338562879</v>
       </c>
       <c r="M2">
-        <v>1.041648016573798</v>
+        <v>1.041223501255892</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041534001281094</v>
+        <v>1.04119802627292</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039469630632765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038582932021428</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022389144649472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014871128756869</v>
+        <v>1.01391522415502</v>
       </c>
       <c r="D3">
-        <v>1.031437129802864</v>
+        <v>1.029997240487448</v>
       </c>
       <c r="E3">
-        <v>1.018989234463514</v>
+        <v>1.018172974219243</v>
       </c>
       <c r="F3">
-        <v>1.033260996570616</v>
+        <v>1.032778527333275</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052184806522442</v>
+        <v>1.051408979281847</v>
       </c>
       <c r="J3">
-        <v>1.034964440887437</v>
+        <v>1.034033602561553</v>
       </c>
       <c r="K3">
-        <v>1.041682967450024</v>
+        <v>1.040260165449287</v>
       </c>
       <c r="L3">
-        <v>1.029384775750519</v>
+        <v>1.028578491181751</v>
       </c>
       <c r="M3">
-        <v>1.043485274866374</v>
+        <v>1.043008499571384</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042988064494548</v>
+        <v>1.042610730014105</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040541083293502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03954353012554</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022655352722411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017116370706882</v>
+        <v>1.016093416792124</v>
       </c>
       <c r="D4">
-        <v>1.032929979132785</v>
+        <v>1.031390765647438</v>
       </c>
       <c r="E4">
-        <v>1.02075147690947</v>
+        <v>1.019875384228468</v>
       </c>
       <c r="F4">
-        <v>1.034960591787098</v>
+        <v>1.034445089226709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052797307690925</v>
+        <v>1.051967174563984</v>
       </c>
       <c r="J4">
-        <v>1.036092145644454</v>
+        <v>1.035094221844579</v>
       </c>
       <c r="K4">
-        <v>1.0426465717876</v>
+        <v>1.04112453702158</v>
       </c>
       <c r="L4">
-        <v>1.030605738544625</v>
+        <v>1.02973970593423</v>
       </c>
       <c r="M4">
-        <v>1.044654617491778</v>
+        <v>1.044144833582192</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043913517012249</v>
+        <v>1.043510059015109</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041223326308585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040155690385617</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022821860135608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018054343277768</v>
+        <v>1.017003501212018</v>
       </c>
       <c r="D5">
-        <v>1.033556569152919</v>
+        <v>1.031975992436202</v>
       </c>
       <c r="E5">
-        <v>1.021489402278528</v>
+        <v>1.020588402757839</v>
       </c>
       <c r="F5">
-        <v>1.035671277929369</v>
+        <v>1.035142037036658</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053052464153499</v>
+        <v>1.052199687256199</v>
       </c>
       <c r="J5">
-        <v>1.036564165425494</v>
+        <v>1.035538276132203</v>
       </c>
       <c r="K5">
-        <v>1.043051303687747</v>
+        <v>1.041487903539847</v>
       </c>
       <c r="L5">
-        <v>1.03111693032074</v>
+        <v>1.030226000930269</v>
       </c>
       <c r="M5">
-        <v>1.045143131871688</v>
+        <v>1.044619606471617</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04430014146802</v>
+        <v>1.043885808267096</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041516660617092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040420489459925</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022891812831358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018215131832372</v>
+        <v>1.017159495087316</v>
       </c>
       <c r="D6">
-        <v>1.033666599857646</v>
+        <v>1.032078978975865</v>
       </c>
       <c r="E6">
-        <v>1.021616491710757</v>
+        <v>1.020711193003017</v>
       </c>
       <c r="F6">
-        <v>1.035792124873338</v>
+        <v>1.035260526693157</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053097867192675</v>
+        <v>1.052241220255831</v>
       </c>
       <c r="J6">
-        <v>1.036646855357362</v>
+        <v>1.035616157741283</v>
       </c>
       <c r="K6">
-        <v>1.043124067517692</v>
+        <v>1.041553621664886</v>
       </c>
       <c r="L6">
-        <v>1.031205960120234</v>
+        <v>1.030310733176262</v>
       </c>
       <c r="M6">
-        <v>1.045226699426563</v>
+        <v>1.04470081605549</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044366279235382</v>
+        <v>1.043950079904907</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041576836931449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040476555411482</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022905071865348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017139215089351</v>
+        <v>1.016115508236814</v>
       </c>
       <c r="D7">
-        <v>1.032952111127979</v>
+        <v>1.031411989787635</v>
       </c>
       <c r="E7">
-        <v>1.020770843502839</v>
+        <v>1.019894031155728</v>
       </c>
       <c r="F7">
-        <v>1.034975017747622</v>
+        <v>1.034459157816138</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052808328834903</v>
+        <v>1.051977662562311</v>
       </c>
       <c r="J7">
-        <v>1.03610849764843</v>
+        <v>1.035109828717788</v>
       </c>
       <c r="K7">
-        <v>1.042665583643662</v>
+        <v>1.041142644538774</v>
       </c>
       <c r="L7">
-        <v>1.030621963454037</v>
+        <v>1.029755215612569</v>
       </c>
       <c r="M7">
-        <v>1.04466601741891</v>
+        <v>1.044155878003227</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043922539247713</v>
+        <v>1.043518799897495</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041256840958612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040190570706941</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022827074941455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012555088027853</v>
+        <v>1.011668697553725</v>
       </c>
       <c r="D8">
-        <v>1.029908559019305</v>
+        <v>1.028571545291329</v>
       </c>
       <c r="E8">
-        <v>1.017177799436268</v>
+        <v>1.0164234713725</v>
       </c>
       <c r="F8">
-        <v>1.031509625959836</v>
+        <v>1.031061414672202</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051551395107386</v>
+        <v>1.050831700124932</v>
       </c>
       <c r="J8">
-        <v>1.033805258264748</v>
+        <v>1.032943746666208</v>
       </c>
       <c r="K8">
-        <v>1.040698084725489</v>
+        <v>1.039377920052044</v>
       </c>
       <c r="L8">
-        <v>1.028130007172463</v>
+        <v>1.02738547850421</v>
       </c>
       <c r="M8">
-        <v>1.04227904666951</v>
+        <v>1.041836455835267</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042033418405159</v>
+        <v>1.041683138093142</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039870219913458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038947791125891</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022485613831017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004150407771234</v>
+        <v>1.003521294072611</v>
       </c>
       <c r="D9">
-        <v>1.024347053422863</v>
+        <v>1.023385836410029</v>
       </c>
       <c r="E9">
-        <v>1.010633098471223</v>
+        <v>1.010107892104168</v>
       </c>
       <c r="F9">
-        <v>1.025214375585434</v>
+        <v>1.024892794722926</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04916957782328</v>
+        <v>1.048654682636876</v>
       </c>
       <c r="J9">
-        <v>1.02955745095276</v>
+        <v>1.028950316223446</v>
       </c>
       <c r="K9">
-        <v>1.037057091796161</v>
+        <v>1.036110556259679</v>
       </c>
       <c r="L9">
-        <v>1.023555984946134</v>
+        <v>1.023039077189381</v>
       </c>
       <c r="M9">
-        <v>1.03791119673919</v>
+        <v>1.037594513156444</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038576557096864</v>
+        <v>1.038325922559079</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03729263134089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036634101561027</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021832166432126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9983863249850117</v>
+        <v>0.9979347914400098</v>
       </c>
       <c r="D10">
-        <v>1.020565747149927</v>
+        <v>1.019862092208798</v>
       </c>
       <c r="E10">
-        <v>1.006186015253582</v>
+        <v>1.005818008257138</v>
       </c>
       <c r="F10">
-        <v>1.021105211253806</v>
+        <v>1.020871231636507</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047520619209325</v>
+        <v>1.047145528040718</v>
       </c>
       <c r="J10">
-        <v>1.026664112921472</v>
+        <v>1.026230587879048</v>
       </c>
       <c r="K10">
-        <v>1.034573350178208</v>
+        <v>1.033881757628109</v>
       </c>
       <c r="L10">
-        <v>1.020444470367219</v>
+        <v>1.020083005357275</v>
       </c>
       <c r="M10">
-        <v>1.03510358107546</v>
+        <v>1.034873604591689</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036406076184806</v>
+        <v>1.036224075558925</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035553276658365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03507669225366</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021380131128651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9963300396925454</v>
+        <v>0.9959187769204134</v>
       </c>
       <c r="D11">
-        <v>1.019295819357126</v>
+        <v>1.018662412109692</v>
       </c>
       <c r="E11">
-        <v>1.004677512650157</v>
+        <v>1.004341322007629</v>
       </c>
       <c r="F11">
-        <v>1.020997024052622</v>
+        <v>1.020785008939753</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047143227118885</v>
+        <v>1.046804930238847</v>
       </c>
       <c r="J11">
-        <v>1.025856294321106</v>
+        <v>1.025462330709128</v>
       </c>
       <c r="K11">
-        <v>1.033862793718618</v>
+        <v>1.033240760485338</v>
       </c>
       <c r="L11">
-        <v>1.019511753769169</v>
+        <v>1.019181829134048</v>
       </c>
       <c r="M11">
-        <v>1.035533540797775</v>
+        <v>1.03532531431871</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037183201807758</v>
+        <v>1.037018497144477</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035083721088268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03465954615667</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02128982296898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9957084759230157</v>
+        <v>0.9952996200326887</v>
       </c>
       <c r="D12">
-        <v>1.018932790170396</v>
+        <v>1.018311760480902</v>
       </c>
       <c r="E12">
-        <v>1.00425108463272</v>
+        <v>1.003914109794338</v>
       </c>
       <c r="F12">
-        <v>1.021526270891778</v>
+        <v>1.021317059952351</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047108141369087</v>
+        <v>1.046775666902243</v>
       </c>
       <c r="J12">
-        <v>1.025695577844392</v>
+        <v>1.025304249217577</v>
       </c>
       <c r="K12">
-        <v>1.03370603976354</v>
+        <v>1.033096348492944</v>
       </c>
       <c r="L12">
-        <v>1.019297291255959</v>
+        <v>1.018966703872981</v>
       </c>
       <c r="M12">
-        <v>1.036252363932641</v>
+        <v>1.036046945467683</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03807840890535</v>
+        <v>1.037915980445927</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034972891002684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.0345574442635</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021288164974156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9961625941915344</v>
+        <v>0.995726513118019</v>
       </c>
       <c r="D13">
-        <v>1.019259492719669</v>
+        <v>1.018606395265799</v>
       </c>
       <c r="E13">
-        <v>1.00463872103254</v>
+        <v>1.00427527987736</v>
       </c>
       <c r="F13">
-        <v>1.022607389793327</v>
+        <v>1.022386261273674</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047348479504698</v>
+        <v>1.046997980641553</v>
       </c>
       <c r="J13">
-        <v>1.026037033833966</v>
+        <v>1.025619555188416</v>
       </c>
       <c r="K13">
-        <v>1.033983957171481</v>
+        <v>1.033342734326519</v>
       </c>
       <c r="L13">
-        <v>1.019633849616753</v>
+        <v>1.019277267779372</v>
       </c>
       <c r="M13">
-        <v>1.03727129236951</v>
+        <v>1.037054148059041</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039160795913123</v>
+        <v>1.038989138737235</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035166895354566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034728907852384</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021361534465156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9969639041336981</v>
+        <v>0.9964959405908314</v>
       </c>
       <c r="D14">
-        <v>1.019798616793231</v>
+        <v>1.019103523627329</v>
       </c>
       <c r="E14">
-        <v>1.005275399788703</v>
+        <v>1.004882370861829</v>
       </c>
       <c r="F14">
-        <v>1.023600960462896</v>
+        <v>1.023365131268668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04763808640121</v>
+        <v>1.04726450818028</v>
       </c>
       <c r="J14">
-        <v>1.026499371416196</v>
+        <v>1.026051086145621</v>
       </c>
       <c r="K14">
-        <v>1.034373067996077</v>
+        <v>1.033690457794743</v>
       </c>
       <c r="L14">
-        <v>1.020115350091995</v>
+        <v>1.019729645301816</v>
       </c>
       <c r="M14">
-        <v>1.038107515890151</v>
+        <v>1.037875878685747</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039995124154214</v>
+        <v>1.039812034725578</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035443433671815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034976318289218</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021446327001027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9974023905474368</v>
+        <v>0.9969195933986277</v>
       </c>
       <c r="D15">
-        <v>1.020090008062972</v>
+        <v>1.019374232969681</v>
       </c>
       <c r="E15">
-        <v>1.005616479175785</v>
+        <v>1.005210074731312</v>
       </c>
       <c r="F15">
-        <v>1.023996364745879</v>
+        <v>1.023753478233433</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047777050495645</v>
+        <v>1.047392213432711</v>
       </c>
       <c r="J15">
-        <v>1.026731888154888</v>
+        <v>1.026269216442956</v>
       </c>
       <c r="K15">
-        <v>1.034572866700795</v>
+        <v>1.03386984911521</v>
       </c>
       <c r="L15">
-        <v>1.020361905214251</v>
+        <v>1.019963015725436</v>
       </c>
       <c r="M15">
-        <v>1.038410006499062</v>
+        <v>1.038171403733081</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040271741500483</v>
+        <v>1.040083151345625</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035590567148165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035109593992612</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021486261537216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,105 +1307,123 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9997514072783203</v>
+        <v>0.9991988588647922</v>
       </c>
       <c r="D16">
-        <v>1.021626757010868</v>
+        <v>1.020808044476676</v>
       </c>
       <c r="E16">
-        <v>1.007415625143494</v>
+        <v>1.006948270853257</v>
       </c>
       <c r="F16">
-        <v>1.025576166502046</v>
+        <v>1.025298944271244</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048444398153607</v>
+        <v>1.048004007465947</v>
       </c>
       <c r="J16">
-        <v>1.027898074857131</v>
+        <v>1.02736741140454</v>
       </c>
       <c r="K16">
-        <v>1.035580647801587</v>
+        <v>1.034775893510954</v>
       </c>
       <c r="L16">
-        <v>1.021615978467686</v>
+        <v>1.021156882703156</v>
       </c>
       <c r="M16">
-        <v>1.039463127557055</v>
+        <v>1.039190581641323</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04106541832371</v>
+        <v>1.040849993577348</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036306269464314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035753663068868</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021669546892823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.001139473933622</v>
+        <v>1.000549791894567</v>
       </c>
       <c r="D17">
-        <v>1.022528590633135</v>
+        <v>1.021652574245969</v>
       </c>
       <c r="E17">
-        <v>1.00846875246739</v>
+        <v>1.007969761168155</v>
       </c>
       <c r="F17">
-        <v>1.02626642935607</v>
+        <v>1.025970349787523</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048805088116474</v>
+        <v>1.048333929964058</v>
       </c>
       <c r="J17">
-        <v>1.028553934153526</v>
+        <v>1.027986858793526</v>
       </c>
       <c r="K17">
-        <v>1.036152815210262</v>
+        <v>1.035291315681829</v>
       </c>
       <c r="L17">
-        <v>1.022329905445993</v>
+        <v>1.021839479857398</v>
       </c>
       <c r="M17">
-        <v>1.039829070605329</v>
+        <v>1.039537848097621</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041225658173325</v>
+        <v>1.040995448247866</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036713399212464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036120918743892</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021765786244698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00180445905357</v>
+        <v>1.001204284262328</v>
       </c>
       <c r="D18">
-        <v>1.022939257985095</v>
+        <v>1.022042354379004</v>
       </c>
       <c r="E18">
-        <v>1.008950823942819</v>
+        <v>1.008444472311876</v>
       </c>
       <c r="F18">
-        <v>1.026143826474143</v>
+        <v>1.025841341346118</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04891095818296</v>
+        <v>1.048428960305374</v>
       </c>
       <c r="J18">
-        <v>1.028799468999425</v>
+        <v>1.028221872263793</v>
       </c>
       <c r="K18">
-        <v>1.036373438869492</v>
+        <v>1.035491154175745</v>
       </c>
       <c r="L18">
-        <v>1.022616822670095</v>
+        <v>1.022119017955856</v>
       </c>
       <c r="M18">
-        <v>1.039526043066987</v>
+        <v>1.039228445131983</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040748421218652</v>
+        <v>1.040513122558261</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036857758225638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036249442082501</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021787824335108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001800048399764</v>
+        <v>1.001214649490342</v>
       </c>
       <c r="D19">
-        <v>1.022900221489133</v>
+        <v>1.022017217026199</v>
       </c>
       <c r="E19">
-        <v>1.008903389532555</v>
+        <v>1.00841258271688</v>
       </c>
       <c r="F19">
-        <v>1.025227668777296</v>
+        <v>1.024930697739165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048777365874856</v>
+        <v>1.048303559570778</v>
       </c>
       <c r="J19">
-        <v>1.028660993491134</v>
+        <v>1.028097487861244</v>
       </c>
       <c r="K19">
-        <v>1.036272549085954</v>
+        <v>1.03540386137024</v>
       </c>
       <c r="L19">
-        <v>1.022506459755483</v>
+        <v>1.022023893935581</v>
       </c>
       <c r="M19">
-        <v>1.038562411526062</v>
+        <v>1.038270223941907</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039660823505338</v>
+        <v>1.039429727058786</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036792816550482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036194740436168</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02174376831524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9999067695439311</v>
+        <v>0.9994073177492669</v>
       </c>
       <c r="D20">
-        <v>1.021578607788343</v>
+        <v>1.020806595063232</v>
       </c>
       <c r="E20">
-        <v>1.007361130367482</v>
+        <v>1.006950546015398</v>
       </c>
       <c r="F20">
-        <v>1.022187905051235</v>
+        <v>1.021930365778579</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047971248383011</v>
+        <v>1.047558925615895</v>
       </c>
       <c r="J20">
-        <v>1.027441285541939</v>
+        <v>1.026961105436553</v>
       </c>
       <c r="K20">
-        <v>1.035252346732599</v>
+        <v>1.03449319282558</v>
       </c>
       <c r="L20">
-        <v>1.021275766451962</v>
+        <v>1.020872269649506</v>
       </c>
       <c r="M20">
-        <v>1.035851513062806</v>
+        <v>1.035598254059619</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036987411509887</v>
+        <v>1.036786982958539</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03607541354974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035555174774476</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021509404434484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9954833502237469</v>
+        <v>0.995126388878406</v>
       </c>
       <c r="D21">
-        <v>1.018667322578508</v>
+        <v>1.018098226162889</v>
       </c>
       <c r="E21">
-        <v>1.003946201012509</v>
+        <v>1.003662189910749</v>
       </c>
       <c r="F21">
-        <v>1.018784841742178</v>
+        <v>1.018597138539202</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046645093173242</v>
+        <v>1.046343011838723</v>
       </c>
       <c r="J21">
-        <v>1.02517113204989</v>
+        <v>1.024829296492656</v>
       </c>
       <c r="K21">
-        <v>1.033303461897756</v>
+        <v>1.032744647068697</v>
       </c>
       <c r="L21">
-        <v>1.01885319510735</v>
+        <v>1.018574511561881</v>
       </c>
       <c r="M21">
-        <v>1.033418859760393</v>
+        <v>1.033234545031724</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035021155190957</v>
+        <v>1.034875281306135</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034700706482785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034322449296242</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02114178554643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.992669414994479</v>
+        <v>0.9924030903861483</v>
       </c>
       <c r="D22">
-        <v>1.016818606206949</v>
+        <v>1.016377975942555</v>
       </c>
       <c r="E22">
-        <v>1.001783879697024</v>
+        <v>1.001580079468938</v>
       </c>
       <c r="F22">
-        <v>1.016717484449061</v>
+        <v>1.016574293685132</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045802161341363</v>
+        <v>1.045569790352353</v>
       </c>
       <c r="J22">
-        <v>1.023734761033393</v>
+        <v>1.023480379038091</v>
       </c>
       <c r="K22">
-        <v>1.032064087374078</v>
+        <v>1.031631817404752</v>
       </c>
       <c r="L22">
-        <v>1.017320080221159</v>
+        <v>1.017120299529038</v>
       </c>
       <c r="M22">
-        <v>1.031964883411466</v>
+        <v>1.031824409143641</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033870420623722</v>
+        <v>1.033759243615441</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033810906154715</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033520818685682</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020906220179346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9941567736073106</v>
+        <v>0.9938427036208536</v>
       </c>
       <c r="D23">
-        <v>1.017789331680461</v>
+        <v>1.017280802284181</v>
       </c>
       <c r="E23">
-        <v>1.002924523253813</v>
+        <v>1.002678564318497</v>
       </c>
       <c r="F23">
-        <v>1.017811874970615</v>
+        <v>1.017645218443898</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046244636168137</v>
+        <v>1.045975490241982</v>
       </c>
       <c r="J23">
-        <v>1.02448986483303</v>
+        <v>1.024189465102722</v>
       </c>
       <c r="K23">
-        <v>1.032711580407503</v>
+        <v>1.032212454350835</v>
       </c>
       <c r="L23">
-        <v>1.018126792631715</v>
+        <v>1.017885558460714</v>
       </c>
       <c r="M23">
-        <v>1.03273370712777</v>
+        <v>1.032570130759547</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03447889844892</v>
+        <v>1.03434943761565</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034259073560334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033920767680691</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021027935136106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9999155027080276</v>
+        <v>0.9994184000130795</v>
       </c>
       <c r="D24">
-        <v>1.021567978138731</v>
+        <v>1.020797794988837</v>
       </c>
       <c r="E24">
-        <v>1.007358791857768</v>
+        <v>1.006950722314564</v>
       </c>
       <c r="F24">
-        <v>1.022063774982434</v>
+        <v>1.021807151496001</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047945848544045</v>
+        <v>1.047534714577458</v>
       </c>
       <c r="J24">
-        <v>1.027416805673214</v>
+        <v>1.026938856546955</v>
       </c>
       <c r="K24">
-        <v>1.035226634426903</v>
+        <v>1.034469263496038</v>
       </c>
       <c r="L24">
-        <v>1.021257899614791</v>
+        <v>1.020856865165868</v>
       </c>
       <c r="M24">
-        <v>1.035714196700992</v>
+        <v>1.035461834127206</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036837772098504</v>
+        <v>1.03663804299213</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036029836111133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035508176349031</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021498237624591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006378112610444</v>
+        <v>1.005679823192248</v>
       </c>
       <c r="D25">
-        <v>1.025827985242962</v>
+        <v>1.024766735478881</v>
       </c>
       <c r="E25">
-        <v>1.012364751841328</v>
+        <v>1.011777910316241</v>
       </c>
       <c r="F25">
-        <v>1.026871956299365</v>
+        <v>1.026516366850066</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049815994832075</v>
+        <v>1.049246571398859</v>
       </c>
       <c r="J25">
-        <v>1.030692717987041</v>
+        <v>1.030017538982378</v>
       </c>
       <c r="K25">
-        <v>1.038038161940108</v>
+        <v>1.036992371433833</v>
       </c>
       <c r="L25">
-        <v>1.024774106081445</v>
+        <v>1.024196099896487</v>
       </c>
       <c r="M25">
-        <v>1.039066964967327</v>
+        <v>1.038716537543272</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039491272023067</v>
+        <v>1.039213931769994</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038014867595699</v>
+        <v>1.037288971324473</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022013271259525</v>
       </c>
     </row>
   </sheetData>
